--- a/data/nzd0520/nzd0520.xlsx
+++ b/data/nzd0520/nzd0520.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M348"/>
+  <dimension ref="A1:M353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14132,6 +14132,219 @@
         </is>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>306.7153846153847</v>
+      </c>
+      <c r="C349" t="n">
+        <v>298.509090909091</v>
+      </c>
+      <c r="D349" t="n">
+        <v>272.2722222222222</v>
+      </c>
+      <c r="E349" t="n">
+        <v>281.0642857142857</v>
+      </c>
+      <c r="F349" t="n">
+        <v>287.7166666666667</v>
+      </c>
+      <c r="G349" t="n">
+        <v>317.8853846153846</v>
+      </c>
+      <c r="H349" t="n">
+        <v>326.4242857142857</v>
+      </c>
+      <c r="I349" t="n">
+        <v>336.64</v>
+      </c>
+      <c r="J349" t="n">
+        <v>338.0366666666667</v>
+      </c>
+      <c r="K349" t="n">
+        <v>340.7566666666667</v>
+      </c>
+      <c r="L349" t="n">
+        <v>343.44</v>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-03 22:33:13+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>287.39</v>
+      </c>
+      <c r="C350" t="n">
+        <v>265.4445454545454</v>
+      </c>
+      <c r="D350" t="n">
+        <v>246.7977777777777</v>
+      </c>
+      <c r="E350" t="n">
+        <v>272.12</v>
+      </c>
+      <c r="F350" t="n">
+        <v>270.3133333333333</v>
+      </c>
+      <c r="G350" t="n">
+        <v>287.18</v>
+      </c>
+      <c r="H350" t="n">
+        <v>302.81</v>
+      </c>
+      <c r="I350" t="n">
+        <v>312.24</v>
+      </c>
+      <c r="J350" t="n">
+        <v>319.9533333333333</v>
+      </c>
+      <c r="K350" t="n">
+        <v>322.8933333333333</v>
+      </c>
+      <c r="L350" t="n">
+        <v>316.48</v>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:27:05+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>306.1961538461539</v>
+      </c>
+      <c r="C351" t="n">
+        <v>274.0563636363636</v>
+      </c>
+      <c r="D351" t="n">
+        <v>252.4944444444445</v>
+      </c>
+      <c r="E351" t="n">
+        <v>277.3042857142857</v>
+      </c>
+      <c r="F351" t="n">
+        <v>276.5233333333333</v>
+      </c>
+      <c r="G351" t="n">
+        <v>288.0761538461539</v>
+      </c>
+      <c r="H351" t="n">
+        <v>307.8142857142857</v>
+      </c>
+      <c r="I351" t="n">
+        <v>318.79</v>
+      </c>
+      <c r="J351" t="n">
+        <v>325.5533333333333</v>
+      </c>
+      <c r="K351" t="n">
+        <v>329.4433333333333</v>
+      </c>
+      <c r="L351" t="n">
+        <v>318.93</v>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:33:06+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>305.8238461538461</v>
+      </c>
+      <c r="C352" t="n">
+        <v>280.2172727272728</v>
+      </c>
+      <c r="D352" t="n">
+        <v>276.0866666666667</v>
+      </c>
+      <c r="E352" t="n">
+        <v>283.9642857142857</v>
+      </c>
+      <c r="F352" t="n">
+        <v>291.37</v>
+      </c>
+      <c r="G352" t="n">
+        <v>296.8638461538461</v>
+      </c>
+      <c r="H352" t="n">
+        <v>307.1942857142857</v>
+      </c>
+      <c r="I352" t="n">
+        <v>320.6</v>
+      </c>
+      <c r="J352" t="n">
+        <v>321.99</v>
+      </c>
+      <c r="K352" t="n">
+        <v>332.22</v>
+      </c>
+      <c r="L352" t="n">
+        <v>330.46</v>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 22:33:11+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>311.3676923076923</v>
+      </c>
+      <c r="C353" t="n">
+        <v>289.4054545454546</v>
+      </c>
+      <c r="D353" t="n">
+        <v>293.1977777777778</v>
+      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>336.9633333333333</v>
+      </c>
+      <c r="L353" t="n">
+        <v>351.15</v>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14143,7 +14356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B377"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17921,6 +18134,56 @@
       </c>
       <c r="B377" t="n">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-02-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-02-27 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -18089,28 +18352,28 @@
         <v>0.0883</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8414819834121336</v>
+        <v>-0.7215737136357258</v>
       </c>
       <c r="J2" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K2" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07206671807451015</v>
+        <v>0.05436873312772939</v>
       </c>
       <c r="M2" t="n">
-        <v>16.51297314514687</v>
+        <v>16.5782363300089</v>
       </c>
       <c r="N2" t="n">
-        <v>486.5569167016811</v>
+        <v>495.3020841120268</v>
       </c>
       <c r="O2" t="n">
-        <v>22.05803519585734</v>
+        <v>22.25538326140502</v>
       </c>
       <c r="P2" t="n">
-        <v>294.6733521696941</v>
+        <v>293.5346374049301</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -18166,28 +18429,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8192749750387663</v>
+        <v>-0.6841377473789571</v>
       </c>
       <c r="J3" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K3" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06031251337826737</v>
+        <v>0.04330883434739297</v>
       </c>
       <c r="M3" t="n">
-        <v>18.5817282084436</v>
+        <v>18.66973245513384</v>
       </c>
       <c r="N3" t="n">
-        <v>534.524500084761</v>
+        <v>544.0732287923524</v>
       </c>
       <c r="O3" t="n">
-        <v>23.11978590049573</v>
+        <v>23.32537735584041</v>
       </c>
       <c r="P3" t="n">
-        <v>272.271162863844</v>
+        <v>270.9642645109769</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -18243,28 +18506,28 @@
         <v>0.0524</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.327988908302397</v>
+        <v>-0.2335042241115758</v>
       </c>
       <c r="J4" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K4" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01821927376438204</v>
+        <v>0.009194939766520305</v>
       </c>
       <c r="M4" t="n">
-        <v>13.47631733651569</v>
+        <v>13.71109997665006</v>
       </c>
       <c r="N4" t="n">
-        <v>302.4927088001294</v>
+        <v>313.478102710375</v>
       </c>
       <c r="O4" t="n">
-        <v>17.39231752240424</v>
+        <v>17.70531283853451</v>
       </c>
       <c r="P4" t="n">
-        <v>250.9647287127086</v>
+        <v>250.0466980279236</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -18320,28 +18583,28 @@
         <v>0.0914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1554019836295456</v>
+        <v>0.2549423640014293</v>
       </c>
       <c r="J5" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K5" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005266120976177513</v>
+        <v>0.01356932302266589</v>
       </c>
       <c r="M5" t="n">
-        <v>12.30913982654973</v>
+        <v>12.66260782432333</v>
       </c>
       <c r="N5" t="n">
-        <v>241.9997907450303</v>
+        <v>255.0587503399545</v>
       </c>
       <c r="O5" t="n">
-        <v>15.55634246039313</v>
+        <v>15.9705588612282</v>
       </c>
       <c r="P5" t="n">
-        <v>240.5571716563836</v>
+        <v>239.6009215418832</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -18397,28 +18660,28 @@
         <v>0.0745</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.471669903233574</v>
+        <v>-0.4283561103279031</v>
       </c>
       <c r="J6" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K6" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04796235483791789</v>
+        <v>0.04046439051889439</v>
       </c>
       <c r="M6" t="n">
-        <v>12.23803052175306</v>
+        <v>12.27098832685681</v>
       </c>
       <c r="N6" t="n">
-        <v>239.050447089786</v>
+        <v>239.7627906175352</v>
       </c>
       <c r="O6" t="n">
-        <v>15.46125632313836</v>
+        <v>15.48427559227539</v>
       </c>
       <c r="P6" t="n">
-        <v>278.3700271747388</v>
+        <v>277.9634468597617</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -18474,28 +18737,28 @@
         <v>0.0776</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4178159392363823</v>
+        <v>-0.3826751840283611</v>
       </c>
       <c r="J7" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K7" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04808330086835277</v>
+        <v>0.04096243591472692</v>
       </c>
       <c r="M7" t="n">
-        <v>10.74089305194603</v>
+        <v>10.74764792407764</v>
       </c>
       <c r="N7" t="n">
-        <v>185.0086791946622</v>
+        <v>186.685095305823</v>
       </c>
       <c r="O7" t="n">
-        <v>13.60178955853465</v>
+        <v>13.66327542377094</v>
       </c>
       <c r="P7" t="n">
-        <v>295.5060718736529</v>
+        <v>295.1724698806441</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -18551,28 +18814,28 @@
         <v>0.0853</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5292598181769</v>
+        <v>-0.4751373868084792</v>
       </c>
       <c r="J8" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K8" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03528002469042291</v>
+        <v>0.02920544968878103</v>
       </c>
       <c r="M8" t="n">
-        <v>14.57895020227596</v>
+        <v>14.5535032573569</v>
       </c>
       <c r="N8" t="n">
-        <v>415.2016683629389</v>
+        <v>414.7123228874376</v>
       </c>
       <c r="O8" t="n">
-        <v>20.37649794157325</v>
+        <v>20.36448680638522</v>
       </c>
       <c r="P8" t="n">
-        <v>306.6908667502105</v>
+        <v>306.1870020664101</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -18628,28 +18891,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5984571605810642</v>
+        <v>-0.5438324138608303</v>
       </c>
       <c r="J9" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K9" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04128137150877986</v>
+        <v>0.03516849491423646</v>
       </c>
       <c r="M9" t="n">
-        <v>15.36484844786099</v>
+        <v>15.3302336294757</v>
       </c>
       <c r="N9" t="n">
-        <v>445.7214155200082</v>
+        <v>444.1900443415672</v>
       </c>
       <c r="O9" t="n">
-        <v>21.11211537293239</v>
+        <v>21.0758165759139</v>
       </c>
       <c r="P9" t="n">
-        <v>320.3827562327921</v>
+        <v>319.8751128636763</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -18705,28 +18968,28 @@
         <v>0.0798</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8788643479505686</v>
+        <v>-0.8290584844867771</v>
       </c>
       <c r="J10" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K10" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07339704025734239</v>
+        <v>0.06739051663969908</v>
       </c>
       <c r="M10" t="n">
-        <v>17.02980371232887</v>
+        <v>16.96300201306467</v>
       </c>
       <c r="N10" t="n">
-        <v>522.8886546609546</v>
+        <v>519.7585000424193</v>
       </c>
       <c r="O10" t="n">
-        <v>22.86675872660912</v>
+        <v>22.79821265017105</v>
       </c>
       <c r="P10" t="n">
-        <v>332.0095664208413</v>
+        <v>331.5411459583695</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -18782,28 +19045,28 @@
         <v>0.0767</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.390519134760782</v>
+        <v>-0.3409604868247432</v>
       </c>
       <c r="J11" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K11" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01129036456149513</v>
+        <v>0.008944658351047297</v>
       </c>
       <c r="M11" t="n">
-        <v>20.04816736539397</v>
+        <v>19.82513414350385</v>
       </c>
       <c r="N11" t="n">
-        <v>724.2477317072844</v>
+        <v>714.4035918567043</v>
       </c>
       <c r="O11" t="n">
-        <v>26.91185113862078</v>
+        <v>26.72832938768722</v>
       </c>
       <c r="P11" t="n">
-        <v>328.9803777758609</v>
+        <v>328.5130552954939</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -18859,28 +19122,28 @@
         <v>0.0679</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.006388768355873212</v>
+        <v>0.04129107199589244</v>
       </c>
       <c r="J12" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K12" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L12" t="n">
-        <v>2.225057647353701e-06</v>
+        <v>9.635075492508971e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>23.48740239052736</v>
+        <v>23.19827322885541</v>
       </c>
       <c r="N12" t="n">
-        <v>1059.481747120183</v>
+        <v>1044.951345224147</v>
       </c>
       <c r="O12" t="n">
-        <v>32.54968121380274</v>
+        <v>32.32570718830675</v>
       </c>
       <c r="P12" t="n">
-        <v>319.4669025987232</v>
+        <v>319.0365711475926</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -18917,7 +19180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M348"/>
+  <dimension ref="A1:M353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38269,6 +38532,317 @@
         </is>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-46.22082673882705,166.77794514766566</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-46.22036625155753,166.77734077991104</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-46.21978952865444,166.77689860266287</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-46.21943861551928,166.7761413279879</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-46.21907390545773,166.77540330063746</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-46.21886078556436,166.7744537365641</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-46.21850822837822,166.7736987399353</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-46.21816647656805,166.77292866003728</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>-46.217767871771414,166.77223791059942</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>-46.217377794232256,166.77153525743964</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>-46.2169874771009,166.77083293421342</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-03 22:33:13+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>-46.22070215754018,166.77811898744042</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>-46.22015310146036,166.77763820728262</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>-46.21962530851433,166.77712775258556</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-46.21938095694536,166.77622178452228</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>-46.218961717041736,166.77555984854285</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-46.21866284887664,166.77472994102624</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-46.21835600429013,166.77391115783809</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-46.218009188662435,166.77314814564727</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>-46.217651303268774,166.77240057559146</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>-46.21726264460025,166.77169594317203</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>-46.21681369000678,166.77107544632156</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-04 22:27:05+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-46.22082339160466,166.77794981837013</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-46.22020861750367,166.77756074113202</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-46.219662031928536,166.77707650955713</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-46.21941437700841,166.77617515033702</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>-46.21900174906009,166.7755039879103</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>-46.21866862578067,166.77472187987266</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>-46.218388263310814,166.77386614281812</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>-46.21805141148832,166.77308922647848</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>-46.217687401930526,166.77235020199066</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>-46.21730486687861,166.7716370241493</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>-46.21682948299805,166.7710534080075</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-19 22:33:06+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>-46.2208209915221,166.7779531674379</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-46.22024833373632,166.7775053216221</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-46.21981411829506,166.7768642905242</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-46.219457310107515,166.77611524158107</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>-46.21909745618349,166.77537043778926</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>-46.218725274116366,166.7746428320413</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>-46.2183842666191,166.77387171990313</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>-46.21806307916377,166.77307294498218</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>-46.21766443201124,166.77238225520028</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>-46.217322765676066,166.77161204725368</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>-46.21690380668269,166.77094969283192</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 22:33:11+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-46.22085672992978,166.77790329812814</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-46.220307565191476,166.77742267059642</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-46.21992442413882,166.77671037026798</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>-46.21735334187847,166.77156937960177</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>-46.21703717649037,166.77076358050422</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0520/nzd0520.xlsx
+++ b/data/nzd0520/nzd0520.xlsx
@@ -18197,7 +18197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18288,35 +18288,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -18375,27 +18380,28 @@
       <c r="P2" t="n">
         <v>293.5346374049301</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (166.78070408502944 -46.218849458861996, 166.77281629732977 -46.224501906866315)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>166.7807040850294</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.218849458862</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>166.7728162973298</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.22450190686632</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>166.7767601911796</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.22167568286416</v>
       </c>
     </row>
@@ -18452,27 +18458,28 @@
       <c r="P3" t="n">
         <v>270.9642645109769</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (166.78002589149858 -46.2184418846819, 166.77213810452037 -46.22409431345189)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>166.7800258914986</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.2184418846819</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>166.7721381045204</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.22409431345189</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>166.7760819980095</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.2212680990669</v>
       </c>
     </row>
@@ -18529,27 +18536,28 @@
       <c r="P4" t="n">
         <v>250.0466980279236</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (166.77934769796724 -46.21803430747624, 166.77145991171196 -46.22368671701177)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>166.7793476979672</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.21803430747624</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>166.771459911712</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.22368671701177</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>166.7754038048396</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.220860512244</v>
       </c>
     </row>
@@ -18606,27 +18614,28 @@
       <c r="P5" t="n">
         <v>239.6009215418832</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (166.7786695044354 -46.21762672724501, 166.77078171890463 -46.22327911754601)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>166.7786695044354</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.21762672724501</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>166.7707817189046</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.22327911754601</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>166.77472561167</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.22045292239551</v>
       </c>
     </row>
@@ -18683,27 +18692,28 @@
       <c r="P6" t="n">
         <v>277.9634468597617</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (166.7779913109031 -46.21721914398817, 166.77010352609827 -46.22287151505459)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>166.7779913109031</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.21721914398817</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>166.7701035260983</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.22287151505459</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>166.7740474185007</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.22004532952138</v>
       </c>
     </row>
@@ -18760,27 +18770,28 @@
       <c r="P7" t="n">
         <v>295.1724698806441</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (166.7773131173702 -46.21681155770576, 166.7694253332929 -46.22246390953748)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>166.7773131173702</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.21681155770576</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>166.7694253332929</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.22246390953748</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>166.7733692253315</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.21963773362162</v>
       </c>
     </row>
@@ -18837,27 +18848,28 @@
       <c r="P8" t="n">
         <v>306.1870020664101</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (166.7766349238368 -46.216403968397756, 166.76874714048859 -46.22205630099468)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>166.7766349238368</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.21640396839776</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>166.7687471404886</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.22205630099468</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>166.7726910321627</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.21923013469622</v>
       </c>
     </row>
@@ -18914,27 +18926,28 @@
       <c r="P9" t="n">
         <v>319.8751128636763</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (166.77595673030305 -46.2159963760642, 166.76806894768515 -46.22164868942616)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>166.7759567303031</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.2159963760642</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>166.7680689476852</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.22164868942616</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>166.7720128389941</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.21882253274518</v>
       </c>
     </row>
@@ -18991,27 +19004,28 @@
       <c r="P10" t="n">
         <v>331.5411459583695</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (166.77527853676872 -46.215588780705005, 166.76739075488285 -46.221241074832)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>166.7752785367687</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-46.215588780705</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>166.7673907548829</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-46.221241074832</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>166.7713346458258</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-46.21841492776851</v>
       </c>
     </row>
@@ -19068,27 +19082,28 @@
       <c r="P11" t="n">
         <v>328.5130552954939</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (166.77460034323383 -46.215181182320194, 166.76671256208166 -46.22083345721225)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>166.7746003432338</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-46.21518118232019</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>166.7667125620817</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-46.22083345721225</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>166.7706564526578</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-46.21800731976622</v>
       </c>
     </row>
@@ -19145,27 +19160,28 @@
       <c r="P12" t="n">
         <v>319.0365711475926</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (166.7739221496984 -46.2147735809098, 166.76603436928136 -46.22042583656676)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>166.7739221496984</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-46.2147735809098</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>166.7660343692814</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-46.22042583656676</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>166.7699782594899</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-46.21759970873828</v>
       </c>
     </row>

--- a/data/nzd0520/nzd0520.xlsx
+++ b/data/nzd0520/nzd0520.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M353"/>
+  <dimension ref="A1:M357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14345,6 +14345,172 @@
         </is>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:27:02+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>304.1792307692308</v>
+      </c>
+      <c r="C354" t="n">
+        <v>291.4327272727273</v>
+      </c>
+      <c r="D354" t="n">
+        <v>270.78</v>
+      </c>
+      <c r="E354" t="n">
+        <v>284.5214285714285</v>
+      </c>
+      <c r="F354" t="n">
+        <v>294.14</v>
+      </c>
+      <c r="G354" t="n">
+        <v>301.9692307692308</v>
+      </c>
+      <c r="H354" t="n">
+        <v>311.5014285714286</v>
+      </c>
+      <c r="I354" t="n">
+        <v>329.34</v>
+      </c>
+      <c r="J354" t="n">
+        <v>331.24</v>
+      </c>
+      <c r="K354" t="n">
+        <v>338.36</v>
+      </c>
+      <c r="L354" t="n">
+        <v>340.52</v>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-15 22:33:08+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>297.9653846153847</v>
+      </c>
+      <c r="C355" t="n">
+        <v>274.740909090909</v>
+      </c>
+      <c r="D355" t="n">
+        <v>242.5977777777778</v>
+      </c>
+      <c r="E355" t="n">
+        <v>286.2285714285715</v>
+      </c>
+      <c r="F355" t="n">
+        <v>290.1433333333333</v>
+      </c>
+      <c r="G355" t="n">
+        <v>289.9653846153847</v>
+      </c>
+      <c r="H355" t="n">
+        <v>310.6585714285715</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-23 22:32:50+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>292.4115384615384</v>
+      </c>
+      <c r="C356" t="n">
+        <v>270.4518181818182</v>
+      </c>
+      <c r="D356" t="n">
+        <v>222.1377777777778</v>
+      </c>
+      <c r="E356" t="n">
+        <v>281.5414285714286</v>
+      </c>
+      <c r="F356" t="n">
+        <v>291.8233333333333</v>
+      </c>
+      <c r="G356" t="n">
+        <v>297.6815384615385</v>
+      </c>
+      <c r="H356" t="n">
+        <v>304.3014285714286</v>
+      </c>
+      <c r="I356" t="n">
+        <v>303.28</v>
+      </c>
+      <c r="J356" t="n">
+        <v>321.1533333333333</v>
+      </c>
+      <c r="K356" t="n">
+        <v>330.9133333333333</v>
+      </c>
+      <c r="L356" t="n">
+        <v>332.68</v>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>281.9776923076923</v>
+      </c>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="n">
+        <v>239.66</v>
+      </c>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="n">
+        <v>254.1600000000001</v>
+      </c>
+      <c r="G357" t="n">
+        <v>291.7276923076923</v>
+      </c>
+      <c r="H357" t="n">
+        <v>305.82</v>
+      </c>
+      <c r="I357" t="n">
+        <v>331.7</v>
+      </c>
+      <c r="J357" t="n">
+        <v>338.39</v>
+      </c>
+      <c r="K357" t="n">
+        <v>336.62</v>
+      </c>
+      <c r="L357" t="inlineStr"/>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14356,7 +14522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18184,6 +18350,46 @@
       </c>
       <c r="B382" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-03-15 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-03-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -18357,28 +18563,28 @@
         <v>0.0883</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7215737136357258</v>
+        <v>-0.6635482527972272</v>
       </c>
       <c r="J2" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K2" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05436873312772939</v>
+        <v>0.04729875400933736</v>
       </c>
       <c r="M2" t="n">
-        <v>16.5782363300089</v>
+        <v>16.51753114035744</v>
       </c>
       <c r="N2" t="n">
-        <v>495.3020841120268</v>
+        <v>493.9443436692627</v>
       </c>
       <c r="O2" t="n">
-        <v>22.25538326140502</v>
+        <v>22.22485868727319</v>
       </c>
       <c r="P2" t="n">
-        <v>293.5346374049301</v>
+        <v>292.9807678535182</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18435,28 +18641,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6841377473789571</v>
+        <v>-0.6179683550296523</v>
       </c>
       <c r="J3" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K3" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04330883434739297</v>
+        <v>0.03604774064158323</v>
       </c>
       <c r="M3" t="n">
-        <v>18.66973245513384</v>
+        <v>18.68514309683159</v>
       </c>
       <c r="N3" t="n">
-        <v>544.0732287923524</v>
+        <v>546.0540703339888</v>
       </c>
       <c r="O3" t="n">
-        <v>23.32537735584041</v>
+        <v>23.36779986079111</v>
       </c>
       <c r="P3" t="n">
-        <v>270.9642645109769</v>
+        <v>270.3214443796272</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18513,28 +18719,28 @@
         <v>0.0524</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2335042241115758</v>
+        <v>-0.234458590151463</v>
       </c>
       <c r="J4" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K4" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009194939766520305</v>
+        <v>0.009427682122926773</v>
       </c>
       <c r="M4" t="n">
-        <v>13.71109997665006</v>
+        <v>13.70962441670401</v>
       </c>
       <c r="N4" t="n">
-        <v>313.478102710375</v>
+        <v>313.3374402793734</v>
       </c>
       <c r="O4" t="n">
-        <v>17.70531283853451</v>
+        <v>17.70134007015778</v>
       </c>
       <c r="P4" t="n">
-        <v>250.0466980279236</v>
+        <v>250.0565540195236</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18591,28 +18797,28 @@
         <v>0.0914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2549423640014293</v>
+        <v>0.3361445884097918</v>
       </c>
       <c r="J5" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K5" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01356932302266589</v>
+        <v>0.02256315057024105</v>
       </c>
       <c r="M5" t="n">
-        <v>12.66260782432333</v>
+        <v>12.99598034196818</v>
       </c>
       <c r="N5" t="n">
-        <v>255.0587503399545</v>
+        <v>267.5399074817508</v>
       </c>
       <c r="O5" t="n">
-        <v>15.9705588612282</v>
+        <v>16.35664719561288</v>
       </c>
       <c r="P5" t="n">
-        <v>239.6009215418832</v>
+        <v>238.8165520199955</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18669,28 +18875,28 @@
         <v>0.0745</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4283561103279031</v>
+        <v>-0.3853896614931554</v>
       </c>
       <c r="J6" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K6" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04046439051889439</v>
+        <v>0.03305609872599613</v>
       </c>
       <c r="M6" t="n">
-        <v>12.27098832685681</v>
+        <v>12.39890215753114</v>
       </c>
       <c r="N6" t="n">
-        <v>239.7627906175352</v>
+        <v>243.4892016465715</v>
       </c>
       <c r="O6" t="n">
-        <v>15.48427559227539</v>
+        <v>15.60414052892922</v>
       </c>
       <c r="P6" t="n">
-        <v>277.9634468597617</v>
+        <v>277.5584954866142</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18747,28 +18953,28 @@
         <v>0.0776</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3826751840283611</v>
+        <v>-0.3557806684829226</v>
       </c>
       <c r="J7" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K7" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04096243591472692</v>
+        <v>0.0363478496677887</v>
       </c>
       <c r="M7" t="n">
-        <v>10.74764792407764</v>
+        <v>10.72103602439091</v>
       </c>
       <c r="N7" t="n">
-        <v>186.685095305823</v>
+        <v>185.7166759981857</v>
       </c>
       <c r="O7" t="n">
-        <v>13.66327542377094</v>
+        <v>13.62779057654562</v>
       </c>
       <c r="P7" t="n">
-        <v>295.1724698806441</v>
+        <v>294.9151722866528</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18825,28 +19031,28 @@
         <v>0.0853</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4751373868084792</v>
+        <v>-0.4339864205196794</v>
       </c>
       <c r="J8" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K8" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02920544968878103</v>
+        <v>0.02511856244899024</v>
       </c>
       <c r="M8" t="n">
-        <v>14.5535032573569</v>
+        <v>14.49018128662204</v>
       </c>
       <c r="N8" t="n">
-        <v>414.7123228874376</v>
+        <v>411.4246780194555</v>
       </c>
       <c r="O8" t="n">
-        <v>20.36448680638522</v>
+        <v>20.28360613942835</v>
       </c>
       <c r="P8" t="n">
-        <v>306.1870020664101</v>
+        <v>305.8010212968323</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18903,28 +19109,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5438324138608303</v>
+        <v>-0.5071255518535891</v>
       </c>
       <c r="J9" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K9" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03516849491423646</v>
+        <v>0.03122071136382809</v>
       </c>
       <c r="M9" t="n">
-        <v>15.3302336294757</v>
+        <v>15.31663314208978</v>
       </c>
       <c r="N9" t="n">
-        <v>444.1900443415672</v>
+        <v>443.6137404749998</v>
       </c>
       <c r="O9" t="n">
-        <v>21.0758165759139</v>
+        <v>21.06213997852544</v>
       </c>
       <c r="P9" t="n">
-        <v>319.8751128636763</v>
+        <v>319.5309142570146</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -18981,28 +19187,28 @@
         <v>0.0798</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8290584844867771</v>
+        <v>-0.7853257150229247</v>
       </c>
       <c r="J10" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K10" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06739051663969908</v>
+        <v>0.0617814908865737</v>
       </c>
       <c r="M10" t="n">
-        <v>16.96300201306467</v>
+        <v>16.93503464051807</v>
       </c>
       <c r="N10" t="n">
-        <v>519.7585000424193</v>
+        <v>518.7816783841149</v>
       </c>
       <c r="O10" t="n">
-        <v>22.79821265017105</v>
+        <v>22.77677936812215</v>
       </c>
       <c r="P10" t="n">
-        <v>331.5411459583695</v>
+        <v>331.1261473854166</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19059,28 +19265,28 @@
         <v>0.0767</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3409604868247432</v>
+        <v>-0.3072934829152046</v>
       </c>
       <c r="J11" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K11" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008944658351047297</v>
+        <v>0.00742544696734404</v>
       </c>
       <c r="M11" t="n">
-        <v>19.82513414350385</v>
+        <v>19.70920209647603</v>
       </c>
       <c r="N11" t="n">
-        <v>714.4035918567043</v>
+        <v>709.0706068177898</v>
       </c>
       <c r="O11" t="n">
-        <v>26.72832938768722</v>
+        <v>26.62837972573228</v>
       </c>
       <c r="P11" t="n">
-        <v>328.5130552954939</v>
+        <v>328.1932271215728</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19137,28 +19343,28 @@
         <v>0.0679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04129107199589244</v>
+        <v>0.0655209910978263</v>
       </c>
       <c r="J12" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K12" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L12" t="n">
-        <v>9.635075492508971e-05</v>
+        <v>0.0002460426012825812</v>
       </c>
       <c r="M12" t="n">
-        <v>23.19827322885541</v>
+        <v>23.09230320801183</v>
       </c>
       <c r="N12" t="n">
-        <v>1044.951345224147</v>
+        <v>1038.867655100355</v>
       </c>
       <c r="O12" t="n">
-        <v>32.32570718830675</v>
+        <v>32.23146994941985</v>
       </c>
       <c r="P12" t="n">
-        <v>319.0365711475926</v>
+        <v>318.8168315442732</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19196,7 +19402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M353"/>
+  <dimension ref="A1:M357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38859,6 +39065,246 @@
         </is>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:27:02+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-46.22081038950315,166.77796796145674</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-46.22032063396072,166.77740443451933</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-46.219779909109285,166.77691202566703</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-46.21946090167786,166.77611022990482</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>-46.21911531261151,166.77534552077506</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-46.21875818506451,166.77459690755632</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>-46.21841203164834,166.77383297585106</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>-46.21811941917206,166.77299432594648</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>-46.21772405923571,166.77229904873033</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>-46.21736234498726,166.77155681617305</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>-46.21696865449191,166.77085920043612</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-15 22:33:08+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>-46.22077033190173,166.77802385760893</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>-46.22021303041995,166.7775545834127</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-46.21959823330601,166.77716553265606</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-46.21947190661618,166.77609487361065</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>-46.21908954864175,166.77538147203342</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>-46.2186808043848,166.7747048857099</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>-46.218406598360225,166.77384055760893</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-23 22:32:50+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>-46.22073452896797,166.77807381671502</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>-46.22018538082664,166.77759316522878</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>-46.219466338155684,166.7773495750354</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-46.219441691378115,166.7761370359399</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>-46.219100378535565,166.77536635991558</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>-46.21873054522491,166.7746354766544</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>-46.21836561845659,166.77389774200554</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>-46.21795143035811,166.77322874332455</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>-46.217659038698464,166.77238978125402</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>-46.21731434271334,166.77162380108894</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>-46.216918117041345,166.77092972335547</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>-46.22066726698913,166.77816767322975</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>-46.21957929497708,166.77719195869366</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>-46.21885758637243,166.77570515176956</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>-46.2186921647983,166.77468903324905</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>-46.21837540759164,166.77388408201028</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>-46.21813463225281,166.77297309698</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>-46.217770149420595,166.77223473225348</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>-46.217351128703505,166.77157246798578</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr"/>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0520/nzd0520.xlsx
+++ b/data/nzd0520/nzd0520.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M357"/>
+  <dimension ref="A1:M358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14481,11 +14481,15 @@
       <c r="B357" t="n">
         <v>281.9776923076923</v>
       </c>
-      <c r="C357" t="inlineStr"/>
+      <c r="C357" t="n">
+        <v>205.3154545454545</v>
+      </c>
       <c r="D357" t="n">
         <v>239.66</v>
       </c>
-      <c r="E357" t="inlineStr"/>
+      <c r="E357" t="n">
+        <v>237.07</v>
+      </c>
       <c r="F357" t="n">
         <v>254.1600000000001</v>
       </c>
@@ -14504,8 +14508,45 @@
       <c r="K357" t="n">
         <v>336.62</v>
       </c>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>231.71</v>
+      </c>
       <c r="M357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:26:24+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr"/>
+      <c r="C358" t="n">
+        <v>204.7290909090909</v>
+      </c>
+      <c r="D358" t="n">
+        <v>203.9544444444444</v>
+      </c>
+      <c r="E358" t="n">
+        <v>215.2557142857143</v>
+      </c>
+      <c r="F358" t="n">
+        <v>242.5233333333333</v>
+      </c>
+      <c r="G358" t="n">
+        <v>270.3153846153846</v>
+      </c>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>229.76</v>
+      </c>
+      <c r="M358" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14522,7 +14563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B386"/>
+  <dimension ref="A1:B387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18390,6 +18431,16 @@
       </c>
       <c r="B386" t="n">
         <v>-0.63</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -18566,7 +18617,7 @@
         <v>-0.6635482527972272</v>
       </c>
       <c r="J2" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K2" t="n">
         <v>253</v>
@@ -18641,28 +18692,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6179683550296523</v>
+        <v>-0.7029900761959297</v>
       </c>
       <c r="J3" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K3" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03604774064158323</v>
+        <v>0.04537950468198415</v>
       </c>
       <c r="M3" t="n">
-        <v>18.68514309683159</v>
+        <v>19.03025234327307</v>
       </c>
       <c r="N3" t="n">
-        <v>546.0540703339888</v>
+        <v>561.7292576009246</v>
       </c>
       <c r="O3" t="n">
-        <v>23.36779986079111</v>
+        <v>23.70082820495783</v>
       </c>
       <c r="P3" t="n">
-        <v>270.3214443796272</v>
+        <v>271.1535888415477</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18719,28 +18770,28 @@
         <v>0.0524</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.234458590151463</v>
+        <v>-0.2631798099989242</v>
       </c>
       <c r="J4" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K4" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009427682122926773</v>
+        <v>0.01172652330206192</v>
       </c>
       <c r="M4" t="n">
-        <v>13.70962441670401</v>
+        <v>13.79411757185069</v>
       </c>
       <c r="N4" t="n">
-        <v>313.3374402793734</v>
+        <v>317.9758511550481</v>
       </c>
       <c r="O4" t="n">
-        <v>17.70134007015778</v>
+        <v>17.83187738728169</v>
       </c>
       <c r="P4" t="n">
-        <v>250.0565540195236</v>
+        <v>250.339177891772</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18797,28 +18848,28 @@
         <v>0.0914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3361445884097918</v>
+        <v>0.3060666626864835</v>
       </c>
       <c r="J5" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K5" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02256315057024105</v>
+        <v>0.01878429430163198</v>
       </c>
       <c r="M5" t="n">
-        <v>12.99598034196818</v>
+        <v>13.02682210298256</v>
       </c>
       <c r="N5" t="n">
-        <v>267.5399074817508</v>
+        <v>269.6607475557335</v>
       </c>
       <c r="O5" t="n">
-        <v>16.35664719561288</v>
+        <v>16.42135035725545</v>
       </c>
       <c r="P5" t="n">
-        <v>238.8165520199955</v>
+        <v>239.1094500161487</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18875,28 +18926,28 @@
         <v>0.0745</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3853896614931554</v>
+        <v>-0.4029173616357974</v>
       </c>
       <c r="J6" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K6" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03305609872599613</v>
+        <v>0.03597214489442357</v>
       </c>
       <c r="M6" t="n">
-        <v>12.39890215753114</v>
+        <v>12.44729699357441</v>
       </c>
       <c r="N6" t="n">
-        <v>243.4892016465715</v>
+        <v>244.848471271918</v>
       </c>
       <c r="O6" t="n">
-        <v>15.60414052892922</v>
+        <v>15.64763468617279</v>
       </c>
       <c r="P6" t="n">
-        <v>277.5584954866142</v>
+        <v>277.7253707546145</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18953,28 +19004,28 @@
         <v>0.0776</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3557806684829226</v>
+        <v>-0.3663028856301774</v>
       </c>
       <c r="J7" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K7" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0363478496677887</v>
+        <v>0.03855899697807941</v>
       </c>
       <c r="M7" t="n">
-        <v>10.72103602439091</v>
+        <v>10.74235649951895</v>
       </c>
       <c r="N7" t="n">
-        <v>185.7166759981857</v>
+        <v>185.893637674759</v>
       </c>
       <c r="O7" t="n">
-        <v>13.62779057654562</v>
+        <v>13.63428170732727</v>
       </c>
       <c r="P7" t="n">
-        <v>294.9151722866528</v>
+        <v>295.0166136008669</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19034,7 +19085,7 @@
         <v>-0.4339864205196794</v>
       </c>
       <c r="J8" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K8" t="n">
         <v>266</v>
@@ -19112,7 +19163,7 @@
         <v>-0.5071255518535891</v>
       </c>
       <c r="J9" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K9" t="n">
         <v>254</v>
@@ -19190,7 +19241,7 @@
         <v>-0.7853257150229247</v>
       </c>
       <c r="J10" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K10" t="n">
         <v>271</v>
@@ -19268,7 +19319,7 @@
         <v>-0.3072934829152046</v>
       </c>
       <c r="J11" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K11" t="n">
         <v>266</v>
@@ -19343,28 +19394,28 @@
         <v>0.0679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0655209910978263</v>
+        <v>-0.06491679134626288</v>
       </c>
       <c r="J12" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K12" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002460426012825812</v>
+        <v>0.0002315318104766373</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09230320801183</v>
+        <v>23.89204766171644</v>
       </c>
       <c r="N12" t="n">
-        <v>1038.867655100355</v>
+        <v>1092.829367696427</v>
       </c>
       <c r="O12" t="n">
-        <v>32.23146994941985</v>
+        <v>33.05796980603054</v>
       </c>
       <c r="P12" t="n">
-        <v>318.8168315442732</v>
+        <v>320.0099352526559</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19402,7 +19453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M357"/>
+  <dimension ref="A1:M358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39261,13 +39312,21 @@
           <t>-46.22066726698913,166.77816767322975</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr"/>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>-46.21976547787836,166.77817908394076</t>
+        </is>
+      </c>
       <c r="D357" t="inlineStr">
         <is>
           <t>-46.21957929497708,166.77719195869366</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>-46.21915500948167,166.77653706815533</t>
+        </is>
+      </c>
       <c r="F357" t="inlineStr">
         <is>
           <t>-46.21885758637243,166.77570515176956</t>
@@ -39298,8 +39357,59 @@
           <t>-46.217351128703505,166.77157246798578</t>
         </is>
       </c>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>-46.21626724947677,166.77183796414386</t>
+        </is>
+      </c>
       <c r="M357" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19 22:26:24+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr"/>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>-46.21976169785695,166.77818435839487</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>-46.219349119222215,166.77751313753174</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-46.219014384649746,166.77673329186769</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>-46.21878257176055,166.77580982611988</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>-46.21855413386614,166.77488164262326</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>-46.21625467940585,166.77185550448297</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0520/nzd0520.xlsx
+++ b/data/nzd0520/nzd0520.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M358"/>
+  <dimension ref="A1:M360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14481,15 +14481,11 @@
       <c r="B357" t="n">
         <v>281.9776923076923</v>
       </c>
-      <c r="C357" t="n">
-        <v>205.3154545454545</v>
-      </c>
+      <c r="C357" t="inlineStr"/>
       <c r="D357" t="n">
         <v>239.66</v>
       </c>
-      <c r="E357" t="n">
-        <v>237.07</v>
-      </c>
+      <c r="E357" t="inlineStr"/>
       <c r="F357" t="n">
         <v>254.1600000000001</v>
       </c>
@@ -14508,9 +14504,7 @@
       <c r="K357" t="n">
         <v>336.62</v>
       </c>
-      <c r="L357" t="n">
-        <v>231.71</v>
-      </c>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="inlineStr">
         <is>
           <t>L8</t>
@@ -14524,15 +14518,11 @@
         </is>
       </c>
       <c r="B358" t="inlineStr"/>
-      <c r="C358" t="n">
-        <v>204.7290909090909</v>
-      </c>
+      <c r="C358" t="inlineStr"/>
       <c r="D358" t="n">
         <v>203.9544444444444</v>
       </c>
-      <c r="E358" t="n">
-        <v>215.2557142857143</v>
-      </c>
+      <c r="E358" t="inlineStr"/>
       <c r="F358" t="n">
         <v>242.5233333333333</v>
       </c>
@@ -14543,10 +14533,72 @@
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="n">
-        <v>229.76</v>
-      </c>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:32:37+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr"/>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="n">
+        <v>263.8142857142857</v>
+      </c>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="n">
+        <v>292.8292307692308</v>
+      </c>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:26:25+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>480.5376923076923</v>
+      </c>
+      <c r="C360" t="n">
+        <v>459.4536363636364</v>
+      </c>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="n">
+        <v>518.7457142857144</v>
+      </c>
+      <c r="I360" t="n">
+        <v>631.9399999999999</v>
+      </c>
+      <c r="J360" t="n">
+        <v>624.6133333333333</v>
+      </c>
+      <c r="K360" t="n">
+        <v>596.1133333333333</v>
+      </c>
+      <c r="L360" t="n">
+        <v>593.03</v>
+      </c>
+      <c r="M360" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14563,7 +14615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B387"/>
+  <dimension ref="A1:B389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18441,6 +18493,26 @@
       </c>
       <c r="B387" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -18614,28 +18686,28 @@
         <v>0.0883</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6635482527972272</v>
+        <v>-0.5062400396233931</v>
       </c>
       <c r="J2" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K2" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04729875400933736</v>
+        <v>0.02142889308626572</v>
       </c>
       <c r="M2" t="n">
-        <v>16.51753114035744</v>
+        <v>17.05126126738707</v>
       </c>
       <c r="N2" t="n">
-        <v>493.9443436692627</v>
+        <v>654.7817494138732</v>
       </c>
       <c r="O2" t="n">
-        <v>22.22485868727319</v>
+        <v>25.58870355086152</v>
       </c>
       <c r="P2" t="n">
-        <v>292.9807678535182</v>
+        <v>291.4634829475414</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18692,28 +18764,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7029900761959297</v>
+        <v>-0.4382938068891454</v>
       </c>
       <c r="J3" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K3" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04537950468198415</v>
+        <v>0.01411069394242714</v>
       </c>
       <c r="M3" t="n">
-        <v>19.03025234327307</v>
+        <v>19.32219865829593</v>
       </c>
       <c r="N3" t="n">
-        <v>561.7292576009246</v>
+        <v>721.5814277577789</v>
       </c>
       <c r="O3" t="n">
-        <v>23.70082820495783</v>
+        <v>26.86226773297033</v>
       </c>
       <c r="P3" t="n">
-        <v>271.1535888415477</v>
+        <v>268.5576777425422</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18773,7 +18845,7 @@
         <v>-0.2631798099989242</v>
       </c>
       <c r="J4" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K4" t="n">
         <v>275</v>
@@ -18848,28 +18920,28 @@
         <v>0.0914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3060666626864835</v>
+        <v>0.347882809759226</v>
       </c>
       <c r="J5" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K5" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01878429430163198</v>
+        <v>0.02422817080797068</v>
       </c>
       <c r="M5" t="n">
-        <v>13.02682210298256</v>
+        <v>13.01747526531309</v>
       </c>
       <c r="N5" t="n">
-        <v>269.6607475557335</v>
+        <v>267.5303855732101</v>
       </c>
       <c r="O5" t="n">
-        <v>16.42135035725545</v>
+        <v>16.35635612149632</v>
       </c>
       <c r="P5" t="n">
-        <v>239.1094500161487</v>
+        <v>238.7020855102973</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18929,7 +19001,7 @@
         <v>-0.4029173616357974</v>
       </c>
       <c r="J6" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K6" t="n">
         <v>281</v>
@@ -19004,28 +19076,28 @@
         <v>0.0776</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3663028856301774</v>
+        <v>-0.3614416147277063</v>
       </c>
       <c r="J7" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K7" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03855899697807941</v>
+        <v>0.03781414228617563</v>
       </c>
       <c r="M7" t="n">
-        <v>10.74235649951895</v>
+        <v>10.72768172219388</v>
       </c>
       <c r="N7" t="n">
-        <v>185.893637674759</v>
+        <v>185.430174367287</v>
       </c>
       <c r="O7" t="n">
-        <v>13.63428170732727</v>
+        <v>13.61727485098567</v>
       </c>
       <c r="P7" t="n">
-        <v>295.0166136008669</v>
+        <v>294.969704305057</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19082,28 +19154,28 @@
         <v>0.0853</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4339864205196794</v>
+        <v>-0.268413319469155</v>
       </c>
       <c r="J8" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K8" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02511856244899024</v>
+        <v>0.006791569197273639</v>
       </c>
       <c r="M8" t="n">
-        <v>14.49018128662204</v>
+        <v>15.11523055671026</v>
       </c>
       <c r="N8" t="n">
-        <v>411.4246780194555</v>
+        <v>595.7132749634633</v>
       </c>
       <c r="O8" t="n">
-        <v>20.28360613942835</v>
+        <v>24.40723816746711</v>
       </c>
       <c r="P8" t="n">
-        <v>305.8010212968323</v>
+        <v>304.2332172815161</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19160,28 +19232,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5071255518535891</v>
+        <v>-0.2489742469612723</v>
       </c>
       <c r="J9" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K9" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03122071136382809</v>
+        <v>0.004049421972580625</v>
       </c>
       <c r="M9" t="n">
-        <v>15.31663314208978</v>
+        <v>16.37297726078985</v>
       </c>
       <c r="N9" t="n">
-        <v>443.6137404749998</v>
+        <v>851.8550355868038</v>
       </c>
       <c r="O9" t="n">
-        <v>21.06213997852544</v>
+        <v>29.18655573353601</v>
       </c>
       <c r="P9" t="n">
-        <v>319.5309142570146</v>
+        <v>317.0923661232093</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19238,28 +19310,28 @@
         <v>0.0798</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7853257150229247</v>
+        <v>-0.5546524118920676</v>
       </c>
       <c r="J10" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K10" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0617814908865737</v>
+        <v>0.01920375611051162</v>
       </c>
       <c r="M10" t="n">
-        <v>16.93503464051807</v>
+        <v>17.7642037467625</v>
       </c>
       <c r="N10" t="n">
-        <v>518.7816783841149</v>
+        <v>874.293131486098</v>
       </c>
       <c r="O10" t="n">
-        <v>22.77677936812215</v>
+        <v>29.56844824278234</v>
       </c>
       <c r="P10" t="n">
-        <v>331.1261473854166</v>
+        <v>328.9204338397897</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19316,28 +19388,28 @@
         <v>0.0767</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3072934829152046</v>
+        <v>-0.1065404440493836</v>
       </c>
       <c r="J11" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K11" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00742544696734404</v>
+        <v>0.0006477360415728661</v>
       </c>
       <c r="M11" t="n">
-        <v>19.70920209647603</v>
+        <v>20.33135916235278</v>
       </c>
       <c r="N11" t="n">
-        <v>709.0706068177898</v>
+        <v>987.9953182401002</v>
       </c>
       <c r="O11" t="n">
-        <v>26.62837972573228</v>
+        <v>31.43239281760299</v>
       </c>
       <c r="P11" t="n">
-        <v>328.1932271215728</v>
+        <v>326.269511192088</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19394,28 +19466,28 @@
         <v>0.0679</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06491679134626288</v>
+        <v>0.2670962521765817</v>
       </c>
       <c r="J12" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K12" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002315318104766373</v>
+        <v>0.003208018794545131</v>
       </c>
       <c r="M12" t="n">
-        <v>23.89204766171644</v>
+        <v>23.69907064071148</v>
       </c>
       <c r="N12" t="n">
-        <v>1092.829367696427</v>
+        <v>1325.877328894405</v>
       </c>
       <c r="O12" t="n">
-        <v>33.05796980603054</v>
+        <v>36.4125984913794</v>
       </c>
       <c r="P12" t="n">
-        <v>320.0099352526559</v>
+        <v>316.9667294413497</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19453,7 +19525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M358"/>
+  <dimension ref="A1:M360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19781,7 +19853,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-46.218457805547075,166.77501605897825</t>
+          <t>-46.21845780554707,166.77501605897825</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -39312,21 +39384,13 @@
           <t>-46.22066726698913,166.77816767322975</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>-46.21976547787836,166.77817908394076</t>
-        </is>
-      </c>
+      <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
           <t>-46.21957929497708,166.77719195869366</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>-46.21915500948167,166.77653706815533</t>
-        </is>
-      </c>
+      <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
           <t>-46.21885758637243,166.77570515176956</t>
@@ -39357,11 +39421,7 @@
           <t>-46.217351128703505,166.77157246798578</t>
         </is>
       </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>-46.21626724947677,166.77183796414386</t>
-        </is>
-      </c>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="inlineStr">
         <is>
           <t>L8</t>
@@ -39375,21 +39435,13 @@
         </is>
       </c>
       <c r="B358" t="inlineStr"/>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>-46.21976169785695,166.77818435839487</t>
-        </is>
-      </c>
+      <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
           <t>-46.219349119222215,166.77751313753174</t>
         </is>
       </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>-46.219014384649746,166.77673329186769</t>
-        </is>
-      </c>
+      <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
           <t>-46.21878257176055,166.77580982611988</t>
@@ -39404,12 +39456,90 @@
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>-46.21625467940585,166.77185550448297</t>
-        </is>
-      </c>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:32:37+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr"/>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-46.21932741480886,166.776296496763</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>-46.21869926567529,166.77467912459278</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-04 22:26:25+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>-46.22194727231932,166.77638150896135</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>-46.22140376535516,166.7758929932233</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>-46.219747967418094,166.77196870432846</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>-46.22007000828052,166.7702722442629</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>-46.21961516202365,166.76965997512764</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>-46.219023831648684,166.76923817801878</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>-46.21859633309487,166.76858773497307</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0520/nzd0520.xlsx
+++ b/data/nzd0520/nzd0520.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M360"/>
+  <dimension ref="A1:M362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14570,37 +14570,97 @@
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04 22:26:25+00:00</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>480.5376923076923</v>
-      </c>
-      <c r="C360" t="n">
-        <v>459.4536363636364</v>
-      </c>
-      <c r="D360" t="inlineStr"/>
-      <c r="E360" t="inlineStr"/>
-      <c r="F360" t="inlineStr"/>
-      <c r="G360" t="inlineStr"/>
-      <c r="H360" t="n">
-        <v>518.7457142857144</v>
-      </c>
-      <c r="I360" t="n">
-        <v>631.9399999999999</v>
-      </c>
-      <c r="J360" t="n">
-        <v>624.6133333333333</v>
-      </c>
-      <c r="K360" t="n">
-        <v>596.1133333333333</v>
-      </c>
-      <c r="L360" t="n">
-        <v>593.03</v>
-      </c>
+          <t>2025-07-06 22:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr"/>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="n">
+        <v>250.9988888888889</v>
+      </c>
+      <c r="E360" t="n">
+        <v>255.15</v>
+      </c>
+      <c r="F360" t="n">
+        <v>272.0466666666667</v>
+      </c>
+      <c r="G360" t="n">
+        <v>303.5984615384615</v>
+      </c>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-13 22:32:57+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="n">
+        <v>226.4971428571428</v>
+      </c>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="n">
+        <v>282.6284615384615</v>
+      </c>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-21 22:33:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>635.0261538461538</v>
+      </c>
+      <c r="C362" t="n">
+        <v>358.65</v>
+      </c>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="n">
+        <v>292.0561538461538</v>
+      </c>
+      <c r="H362" t="n">
+        <v>293.54</v>
+      </c>
+      <c r="I362" t="n">
+        <v>314.45</v>
+      </c>
+      <c r="J362" t="n">
+        <v>319.6833333333333</v>
+      </c>
+      <c r="K362" t="n">
+        <v>340.1333333333333</v>
+      </c>
+      <c r="L362" t="n">
+        <v>370.29</v>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -14615,7 +14675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B389"/>
+  <dimension ref="A1:B392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18513,6 +18573,36 @@
       </c>
       <c r="B389" t="n">
         <v>0.02</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2025-07-06 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2025-07-13 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2025-07-21 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -18686,28 +18776,28 @@
         <v>0.0883</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5062400396233931</v>
+        <v>-0.3842136688013323</v>
       </c>
       <c r="J2" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K2" t="n">
         <v>254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02142889308626572</v>
+        <v>0.008245932339513984</v>
       </c>
       <c r="M2" t="n">
-        <v>17.05126126738707</v>
+        <v>17.53772436928784</v>
       </c>
       <c r="N2" t="n">
-        <v>654.7817494138732</v>
+        <v>993.5442316314623</v>
       </c>
       <c r="O2" t="n">
-        <v>25.58870355086152</v>
+        <v>31.52053666471214</v>
       </c>
       <c r="P2" t="n">
-        <v>291.4634829475414</v>
+        <v>290.2700565204051</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18764,28 +18854,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4382938068891454</v>
+        <v>-0.5255250017742086</v>
       </c>
       <c r="J3" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K3" t="n">
         <v>233</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01411069394242714</v>
+        <v>0.02456453257202273</v>
       </c>
       <c r="M3" t="n">
-        <v>19.32219865829593</v>
+        <v>18.96630743734024</v>
       </c>
       <c r="N3" t="n">
-        <v>721.5814277577789</v>
+        <v>589.7259181748135</v>
       </c>
       <c r="O3" t="n">
-        <v>26.86226773297033</v>
+        <v>24.28427306251545</v>
       </c>
       <c r="P3" t="n">
-        <v>268.5576777425422</v>
+        <v>269.4088067672755</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18842,28 +18932,28 @@
         <v>0.0524</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2631798099989242</v>
+        <v>-0.2578424908841406</v>
       </c>
       <c r="J4" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K4" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01172652330206192</v>
+        <v>0.01134138805128349</v>
       </c>
       <c r="M4" t="n">
-        <v>13.79411757185069</v>
+        <v>13.77232867192713</v>
       </c>
       <c r="N4" t="n">
-        <v>317.9758511550481</v>
+        <v>317.0222717814837</v>
       </c>
       <c r="O4" t="n">
-        <v>17.83187738728169</v>
+        <v>17.80511925771585</v>
       </c>
       <c r="P4" t="n">
-        <v>250.339177891772</v>
+        <v>250.2863296556369</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18920,28 +19010,28 @@
         <v>0.0914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.347882809759226</v>
+        <v>0.3381558197220196</v>
       </c>
       <c r="J5" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K5" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02422817080797068</v>
+        <v>0.0231233025809584</v>
       </c>
       <c r="M5" t="n">
-        <v>13.01747526531309</v>
+        <v>13.01933860889765</v>
       </c>
       <c r="N5" t="n">
-        <v>267.5303855732101</v>
+        <v>267.4129062465803</v>
       </c>
       <c r="O5" t="n">
-        <v>16.35635612149632</v>
+        <v>16.35276448330924</v>
       </c>
       <c r="P5" t="n">
-        <v>238.7020855102973</v>
+        <v>238.7975749825314</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18998,28 +19088,28 @@
         <v>0.0745</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4029173616357974</v>
+        <v>-0.3996344480172043</v>
       </c>
       <c r="J6" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K6" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03597214489442357</v>
+        <v>0.03566565935265098</v>
       </c>
       <c r="M6" t="n">
-        <v>12.44729699357441</v>
+        <v>12.41910751232811</v>
       </c>
       <c r="N6" t="n">
-        <v>244.848471271918</v>
+        <v>244.0579381533897</v>
       </c>
       <c r="O6" t="n">
-        <v>15.64763468617279</v>
+        <v>15.62235379683195</v>
       </c>
       <c r="P6" t="n">
-        <v>277.7253707546145</v>
+        <v>277.693917711279</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19076,28 +19166,28 @@
         <v>0.0776</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3614416147277063</v>
+        <v>-0.347359217990325</v>
       </c>
       <c r="J7" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K7" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03781414228617563</v>
+        <v>0.03554638511607799</v>
       </c>
       <c r="M7" t="n">
-        <v>10.72768172219388</v>
+        <v>10.70335271582782</v>
       </c>
       <c r="N7" t="n">
-        <v>185.430174367287</v>
+        <v>184.7860038735837</v>
       </c>
       <c r="O7" t="n">
-        <v>13.61727485098567</v>
+        <v>13.59360157844799</v>
       </c>
       <c r="P7" t="n">
-        <v>294.969704305057</v>
+        <v>294.8330201058685</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19154,28 +19244,28 @@
         <v>0.0853</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.268413319469155</v>
+        <v>-0.4347748691325666</v>
       </c>
       <c r="J8" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K8" t="n">
         <v>267</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006791569197273639</v>
+        <v>0.02541701500111615</v>
       </c>
       <c r="M8" t="n">
-        <v>15.11523055671026</v>
+        <v>14.44066530951136</v>
       </c>
       <c r="N8" t="n">
-        <v>595.7132749634633</v>
+        <v>409.887881068501</v>
       </c>
       <c r="O8" t="n">
-        <v>24.40723816746711</v>
+        <v>20.24568796234154</v>
       </c>
       <c r="P8" t="n">
-        <v>304.2332172815161</v>
+        <v>305.8085321185816</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19232,28 +19322,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2489742469612723</v>
+        <v>-0.5006982090384957</v>
       </c>
       <c r="J9" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K9" t="n">
         <v>255</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004049421972580625</v>
+        <v>0.03071579306685168</v>
       </c>
       <c r="M9" t="n">
-        <v>16.37297726078985</v>
+        <v>15.28191210512421</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8550355868038</v>
+        <v>442.1226048886393</v>
       </c>
       <c r="O9" t="n">
-        <v>29.18655573353601</v>
+        <v>21.02671169937514</v>
       </c>
       <c r="P9" t="n">
-        <v>317.0923661232093</v>
+        <v>319.4698472039141</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19310,28 +19400,28 @@
         <v>0.0798</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5546524118920676</v>
+        <v>-0.7787548606303384</v>
       </c>
       <c r="J10" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K10" t="n">
         <v>272</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01920375611051162</v>
+        <v>0.06126688793110846</v>
       </c>
       <c r="M10" t="n">
-        <v>17.7642037467625</v>
+        <v>16.89619305486404</v>
       </c>
       <c r="N10" t="n">
-        <v>874.293131486098</v>
+        <v>517.1578983882258</v>
       </c>
       <c r="O10" t="n">
-        <v>29.56844824278234</v>
+        <v>22.74110591831949</v>
       </c>
       <c r="P10" t="n">
-        <v>328.9204338397897</v>
+        <v>331.0629454595172</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19388,28 +19478,28 @@
         <v>0.0767</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1065404440493836</v>
+        <v>-0.2926612708181138</v>
       </c>
       <c r="J11" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K11" t="n">
         <v>267</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006477360415728661</v>
+        <v>0.006781175739915768</v>
       </c>
       <c r="M11" t="n">
-        <v>20.33135916235278</v>
+        <v>19.68242326731261</v>
       </c>
       <c r="N11" t="n">
-        <v>987.9953182401002</v>
+        <v>707.8766938987126</v>
       </c>
       <c r="O11" t="n">
-        <v>31.43239281760299</v>
+        <v>26.60595222687421</v>
       </c>
       <c r="P11" t="n">
-        <v>326.269511192088</v>
+        <v>328.0521507159295</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19466,28 +19556,28 @@
         <v>0.0679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2670962521765817</v>
+        <v>0.1027576959455192</v>
       </c>
       <c r="J12" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K12" t="n">
         <v>252</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003208018794545131</v>
+        <v>0.0006044476843021229</v>
       </c>
       <c r="M12" t="n">
-        <v>23.69907064071148</v>
+        <v>23.12237568072869</v>
       </c>
       <c r="N12" t="n">
-        <v>1325.877328894405</v>
+        <v>1044.457256197504</v>
       </c>
       <c r="O12" t="n">
-        <v>36.4125984913794</v>
+        <v>32.31806393021562</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9667294413497</v>
+        <v>318.4728130740671</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19525,7 +19615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M360"/>
+  <dimension ref="A1:M362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39497,51 +39587,125 @@
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04 22:26:25+00:00</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>-46.22194727231932,166.77638150896135</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>-46.22140376535516,166.7758929932233</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr"/>
-      <c r="E360" t="inlineStr"/>
-      <c r="F360" t="inlineStr"/>
-      <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>-46.219747967418094,166.77196870432846</t>
-        </is>
-      </c>
-      <c r="I360" t="inlineStr">
-        <is>
-          <t>-46.22007000828052,166.7702722442629</t>
-        </is>
-      </c>
-      <c r="J360" t="inlineStr">
-        <is>
-          <t>-46.21961516202365,166.76965997512764</t>
-        </is>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>-46.219023831648684,166.76923817801878</t>
-        </is>
-      </c>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>-46.21859633309487,166.76858773497307</t>
-        </is>
-      </c>
+          <t>2025-07-06 22:26:44+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr"/>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>-46.21965239087094,166.7770899624829</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>-46.21927156110944,166.77637443429873</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>-46.218972890769855,166.7755442567481</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>-46.218768687604566,166.77458225211913</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-13 22:32:57+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>-46.21908685207257,166.77663217317308</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>-46.21863350814442,166.77477088335672</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-21 22:33:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>-46.22294315070799,166.77499173628158</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>-46.22075394672878,166.77679978504923</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>-46.21869428216885,166.77468607864301</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>-46.218296247231784,166.77399454407063</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>-46.2180234348412,166.77312826606</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>-46.21764956279694,166.77240300431694</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>-46.21737377613977,166.77154086451054</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>-46.2171605545305,166.77059141005054</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0520/nzd0520.xlsx
+++ b/data/nzd0520/nzd0520.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M362"/>
+  <dimension ref="A1:M365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14575,9 +14575,7 @@
       </c>
       <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr"/>
-      <c r="D360" t="n">
-        <v>250.9988888888889</v>
-      </c>
+      <c r="D360" t="inlineStr"/>
       <c r="E360" t="n">
         <v>255.15</v>
       </c>
@@ -14631,15 +14629,13 @@
           <t>2025-07-21 22:33:00+00:00</t>
         </is>
       </c>
-      <c r="B362" t="n">
-        <v>635.0261538461538</v>
-      </c>
-      <c r="C362" t="n">
-        <v>358.65</v>
-      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr"/>
       <c r="E362" t="inlineStr"/>
-      <c r="F362" t="inlineStr"/>
+      <c r="F362" t="n">
+        <v>316.8333333333333</v>
+      </c>
       <c r="G362" t="n">
         <v>292.0561538461538</v>
       </c>
@@ -14661,6 +14657,117 @@
       <c r="M362" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>300.4315384615385</v>
+      </c>
+      <c r="C363" t="n">
+        <v>256.2009090909091</v>
+      </c>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="n">
+        <v>262.1485714285714</v>
+      </c>
+      <c r="F363" t="n">
+        <v>293.3466666666667</v>
+      </c>
+      <c r="G363" t="n">
+        <v>301.0715384615385</v>
+      </c>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="n">
+        <v>268.73</v>
+      </c>
+      <c r="J363" t="n">
+        <v>279.3766666666667</v>
+      </c>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr"/>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>247.6015384615384</v>
+      </c>
+      <c r="C364" t="n">
+        <v>238.2372727272727</v>
+      </c>
+      <c r="D364" t="n">
+        <v>205.32</v>
+      </c>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>473.53</v>
+      </c>
+      <c r="L364" t="n">
+        <v>343.26</v>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>242.3576923076924</v>
+      </c>
+      <c r="C365" t="n">
+        <v>209.2581818181818</v>
+      </c>
+      <c r="D365" t="n">
+        <v>231.73</v>
+      </c>
+      <c r="E365" t="n">
+        <v>240.3742857142857</v>
+      </c>
+      <c r="F365" t="n">
+        <v>247.82</v>
+      </c>
+      <c r="G365" t="n">
+        <v>282.5876923076923</v>
+      </c>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="n">
+        <v>295.86</v>
+      </c>
+      <c r="J365" t="n">
+        <v>316.18</v>
+      </c>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>339.39</v>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14675,7 +14782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B392"/>
+  <dimension ref="A1:B395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18603,6 +18710,36 @@
       </c>
       <c r="B392" t="n">
         <v>0.77</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
@@ -18776,28 +18913,28 @@
         <v>0.0883</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3842136688013323</v>
+        <v>-0.6919521238557365</v>
       </c>
       <c r="J2" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K2" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008245932339513984</v>
+        <v>0.05151432253910626</v>
       </c>
       <c r="M2" t="n">
-        <v>17.53772436928784</v>
+        <v>16.70623428941781</v>
       </c>
       <c r="N2" t="n">
-        <v>993.5442316314623</v>
+        <v>497.9257787922249</v>
       </c>
       <c r="O2" t="n">
-        <v>31.52053666471214</v>
+        <v>22.31425057653124</v>
       </c>
       <c r="P2" t="n">
-        <v>290.2700565204051</v>
+        <v>293.2579006189859</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18854,28 +18991,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5255250017742086</v>
+        <v>-0.6694619838718506</v>
       </c>
       <c r="J3" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K3" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02456453257202273</v>
+        <v>0.04252684229182124</v>
       </c>
       <c r="M3" t="n">
-        <v>18.96630743734024</v>
+        <v>18.76262210137575</v>
       </c>
       <c r="N3" t="n">
-        <v>589.7259181748135</v>
+        <v>548.6291471998805</v>
       </c>
       <c r="O3" t="n">
-        <v>24.28427306251545</v>
+        <v>23.42283388490557</v>
       </c>
       <c r="P3" t="n">
-        <v>269.4088067672755</v>
+        <v>270.8316260409079</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18932,28 +19069,28 @@
         <v>0.0524</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2578424908841406</v>
+        <v>-0.2989333689054129</v>
       </c>
       <c r="J4" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K4" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01134138805128349</v>
+        <v>0.01504859365457045</v>
       </c>
       <c r="M4" t="n">
-        <v>13.77232867192713</v>
+        <v>13.86191894804436</v>
       </c>
       <c r="N4" t="n">
-        <v>317.0222717814837</v>
+        <v>321.3501642070438</v>
       </c>
       <c r="O4" t="n">
-        <v>17.80511925771585</v>
+        <v>17.92624233371411</v>
       </c>
       <c r="P4" t="n">
-        <v>250.2863296556369</v>
+        <v>250.6947943098193</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19010,28 +19147,28 @@
         <v>0.0914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3381558197220196</v>
+        <v>0.3432816820161566</v>
       </c>
       <c r="J5" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K5" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0231233025809584</v>
+        <v>0.02409085106893061</v>
       </c>
       <c r="M5" t="n">
-        <v>13.01933860889765</v>
+        <v>13.00819450968248</v>
       </c>
       <c r="N5" t="n">
-        <v>267.4129062465803</v>
+        <v>266.448260868743</v>
       </c>
       <c r="O5" t="n">
-        <v>16.35276448330924</v>
+        <v>16.32324296421342</v>
       </c>
       <c r="P5" t="n">
-        <v>238.7975749825314</v>
+        <v>238.7474303089823</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19088,28 +19225,28 @@
         <v>0.0745</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3996344480172043</v>
+        <v>-0.3619039132304925</v>
       </c>
       <c r="J6" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K6" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03566565935265098</v>
+        <v>0.02870069942963482</v>
       </c>
       <c r="M6" t="n">
-        <v>12.41910751232811</v>
+        <v>12.6119565264809</v>
       </c>
       <c r="N6" t="n">
-        <v>244.0579381533897</v>
+        <v>253.6555783659654</v>
       </c>
       <c r="O6" t="n">
-        <v>15.62235379683195</v>
+        <v>15.92656831731071</v>
       </c>
       <c r="P6" t="n">
-        <v>277.693917711279</v>
+        <v>277.3322775667125</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19166,28 +19303,28 @@
         <v>0.0776</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.347359217990325</v>
+        <v>-0.3396262354278633</v>
       </c>
       <c r="J7" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K7" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03554638511607799</v>
+        <v>0.03436376118818696</v>
       </c>
       <c r="M7" t="n">
-        <v>10.70335271582782</v>
+        <v>10.68902922183256</v>
       </c>
       <c r="N7" t="n">
-        <v>184.7860038735837</v>
+        <v>184.3479287725021</v>
       </c>
       <c r="O7" t="n">
-        <v>13.59360157844799</v>
+        <v>13.57747873401031</v>
       </c>
       <c r="P7" t="n">
-        <v>294.8330201058685</v>
+        <v>294.7579306950601</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19247,7 +19384,7 @@
         <v>-0.4347748691325666</v>
       </c>
       <c r="J8" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K8" t="n">
         <v>267</v>
@@ -19322,28 +19459,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5006982090384957</v>
+        <v>-0.5386310683871453</v>
       </c>
       <c r="J9" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K9" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03071579306685168</v>
+        <v>0.03554104601862407</v>
       </c>
       <c r="M9" t="n">
-        <v>15.28191210512421</v>
+        <v>15.3847649819265</v>
       </c>
       <c r="N9" t="n">
-        <v>442.1226048886393</v>
+        <v>444.568032673527</v>
       </c>
       <c r="O9" t="n">
-        <v>21.02671169937514</v>
+        <v>21.08478201626773</v>
       </c>
       <c r="P9" t="n">
-        <v>319.4698472039141</v>
+        <v>319.8305977773759</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19400,28 +19537,28 @@
         <v>0.0798</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7787548606303384</v>
+        <v>-0.7978124369661775</v>
       </c>
       <c r="J10" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K10" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06126688793110846</v>
+        <v>0.06467516577051891</v>
       </c>
       <c r="M10" t="n">
-        <v>16.89619305486404</v>
+        <v>16.93385208337254</v>
       </c>
       <c r="N10" t="n">
-        <v>517.1578983882258</v>
+        <v>517.0946470211502</v>
       </c>
       <c r="O10" t="n">
-        <v>22.74110591831949</v>
+        <v>22.73971519217315</v>
       </c>
       <c r="P10" t="n">
-        <v>331.0629454595172</v>
+        <v>331.2461137924913</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19478,28 +19615,28 @@
         <v>0.0767</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2926612708181138</v>
+        <v>-0.1808499864930526</v>
       </c>
       <c r="J11" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K11" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006781175739915768</v>
+        <v>0.002336285879543487</v>
       </c>
       <c r="M11" t="n">
-        <v>19.68242326731261</v>
+        <v>19.97896255627607</v>
       </c>
       <c r="N11" t="n">
-        <v>707.8766938987126</v>
+        <v>791.6027012385078</v>
       </c>
       <c r="O11" t="n">
-        <v>26.60595222687421</v>
+        <v>28.1354349751076</v>
       </c>
       <c r="P11" t="n">
-        <v>328.0521507159295</v>
+        <v>326.9717459235797</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19556,28 +19693,28 @@
         <v>0.0679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1027576959455192</v>
+        <v>0.1324011652535277</v>
       </c>
       <c r="J12" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K12" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0006044476843021229</v>
+        <v>0.001016967760824161</v>
       </c>
       <c r="M12" t="n">
-        <v>23.12237568072869</v>
+        <v>23.03687575034423</v>
       </c>
       <c r="N12" t="n">
-        <v>1044.457256197504</v>
+        <v>1039.394746901573</v>
       </c>
       <c r="O12" t="n">
-        <v>32.31806393021562</v>
+        <v>32.2396455765502</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4728130740671</v>
+        <v>318.1980271024495</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19615,7 +19752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M362"/>
+  <dimension ref="A1:M365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39592,11 +39729,7 @@
       </c>
       <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr"/>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>-46.21965239087094,166.7770899624829</t>
-        </is>
-      </c>
+      <c r="D360" t="inlineStr"/>
       <c r="E360" t="inlineStr">
         <is>
           <t>-46.21927156110944,166.77637443429873</t>
@@ -39660,19 +39793,15 @@
           <t>2025-07-21 22:33:00+00:00</t>
         </is>
       </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>-46.22294315070799,166.77499173628158</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>-46.22075394672878,166.77679978504923</t>
-        </is>
-      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr"/>
       <c r="E362" t="inlineStr"/>
-      <c r="F362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>-46.21926160185949,166.77514138654863</t>
+        </is>
+      </c>
       <c r="G362" t="inlineStr">
         <is>
           <t>-46.21869428216885,166.77468607864301</t>
@@ -39706,6 +39835,159 @@
       <c r="M362" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-22 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>-46.22078622998302,166.7780016735306</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>-46.22009351233659,166.77772135667144</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>-46.219316676905386,166.7763114803148</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>-46.219110198496786,166.77535265705757</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>-46.21875239825327,166.77460498257523</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>-46.21772871217307,166.77353952853213</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>-46.217389737613836,166.772765572319</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr"/>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>-46.22044565985699,166.77847689850364</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>-46.219977709511696,166.77788294465816</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>-46.21935792229117,166.77750085412757</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>-46.21823366215239,166.77034090255674</t>
+        </is>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>-46.2169863168033,166.7708345533647</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>-46.22041185512592,166.77852406847475</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>-46.219790894852196,166.7781436183286</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>-46.21952817434662,166.77726329091334</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>-46.21917631037992,166.77650734537923</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>-46.21881671620809,166.7757621814856</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>-46.21863324533231,166.77477125008687</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>-46.21790359921251,166.77329548814714</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>-46.2176269796322,166.77243451776587</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>-46.21696137039818,166.77086936509966</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0520/nzd0520.xlsx
+++ b/data/nzd0520/nzd0520.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M365"/>
+  <dimension ref="A1:M366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14633,9 +14633,7 @@
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr"/>
       <c r="E362" t="inlineStr"/>
-      <c r="F362" t="n">
-        <v>316.8333333333333</v>
-      </c>
+      <c r="F362" t="inlineStr"/>
       <c r="G362" t="n">
         <v>292.0561538461538</v>
       </c>
@@ -14718,9 +14716,7 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>473.53</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>343.26</v>
       </c>
@@ -14768,6 +14764,49 @@
       <c r="M365" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-07 22:33:21+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="n">
+        <v>219.3790909090909</v>
+      </c>
+      <c r="D366" t="n">
+        <v>241.3222222222223</v>
+      </c>
+      <c r="E366" t="n">
+        <v>237.0742857142857</v>
+      </c>
+      <c r="F366" t="n">
+        <v>245.7266666666666</v>
+      </c>
+      <c r="G366" t="n">
+        <v>278.5153846153846</v>
+      </c>
+      <c r="H366" t="n">
+        <v>281.8642857142857</v>
+      </c>
+      <c r="I366" t="n">
+        <v>300.33</v>
+      </c>
+      <c r="J366" t="n">
+        <v>327.3166666666667</v>
+      </c>
+      <c r="K366" t="n">
+        <v>336.8966666666667</v>
+      </c>
+      <c r="L366" t="n">
+        <v>343.82</v>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -14782,7 +14821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B395"/>
+  <dimension ref="A1:B396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18740,6 +18779,16 @@
       </c>
       <c r="B395" t="n">
         <v>0.54</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-09-07 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -18916,7 +18965,7 @@
         <v>-0.6919521238557365</v>
       </c>
       <c r="J2" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K2" t="n">
         <v>256</v>
@@ -18991,28 +19040,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6694619838718506</v>
+        <v>-0.6987725629798718</v>
       </c>
       <c r="J3" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K3" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04252684229182124</v>
+        <v>0.04619116969846571</v>
       </c>
       <c r="M3" t="n">
-        <v>18.76262210137575</v>
+        <v>18.857601822028</v>
       </c>
       <c r="N3" t="n">
-        <v>548.6291471998805</v>
+        <v>551.1576118448955</v>
       </c>
       <c r="O3" t="n">
-        <v>23.42283388490557</v>
+        <v>23.47674619373169</v>
       </c>
       <c r="P3" t="n">
-        <v>270.8316260409079</v>
+        <v>271.122673244647</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19069,28 +19118,28 @@
         <v>0.0524</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2989333689054129</v>
+        <v>-0.3000826045030738</v>
       </c>
       <c r="J4" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K4" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01504859365457045</v>
+        <v>0.01527969007934005</v>
       </c>
       <c r="M4" t="n">
-        <v>13.86191894804436</v>
+        <v>13.81740632337418</v>
       </c>
       <c r="N4" t="n">
-        <v>321.3501642070438</v>
+        <v>320.2034995312783</v>
       </c>
       <c r="O4" t="n">
-        <v>17.92624233371411</v>
+        <v>17.89423090080371</v>
       </c>
       <c r="P4" t="n">
-        <v>250.6947943098193</v>
+        <v>250.7062644516616</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19147,28 +19196,28 @@
         <v>0.0914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3432816820161566</v>
+        <v>0.3359233075678297</v>
       </c>
       <c r="J5" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K5" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02409085106893061</v>
+        <v>0.02323274291157873</v>
       </c>
       <c r="M5" t="n">
-        <v>13.00819450968248</v>
+        <v>12.99350437998811</v>
       </c>
       <c r="N5" t="n">
-        <v>266.448260868743</v>
+        <v>265.8940960283601</v>
       </c>
       <c r="O5" t="n">
-        <v>16.32324296421342</v>
+        <v>16.30625941251887</v>
       </c>
       <c r="P5" t="n">
-        <v>238.7474303089823</v>
+        <v>238.8201548191599</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19225,28 +19274,28 @@
         <v>0.0745</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3619039132304925</v>
+        <v>-0.4101562995737112</v>
       </c>
       <c r="J6" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K6" t="n">
         <v>285</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02870069942963482</v>
+        <v>0.03754681550951033</v>
       </c>
       <c r="M6" t="n">
-        <v>12.6119565264809</v>
+        <v>12.52549447130898</v>
       </c>
       <c r="N6" t="n">
-        <v>253.6555783659654</v>
+        <v>246.8199350375501</v>
       </c>
       <c r="O6" t="n">
-        <v>15.92656831731071</v>
+        <v>15.71050397146922</v>
       </c>
       <c r="P6" t="n">
-        <v>277.3322775667125</v>
+        <v>277.7963509947162</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19303,28 +19352,28 @@
         <v>0.0776</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3396262354278633</v>
+        <v>-0.3444442844911494</v>
       </c>
       <c r="J7" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K7" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03436376118818696</v>
+        <v>0.03552125373521064</v>
       </c>
       <c r="M7" t="n">
-        <v>10.68902922183256</v>
+        <v>10.68040929060184</v>
       </c>
       <c r="N7" t="n">
-        <v>184.3479287725021</v>
+        <v>183.9096061800087</v>
       </c>
       <c r="O7" t="n">
-        <v>13.57747873401031</v>
+        <v>13.56132759651535</v>
       </c>
       <c r="P7" t="n">
-        <v>294.7579306950601</v>
+        <v>294.8050655405469</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19381,28 +19430,28 @@
         <v>0.0853</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4347748691325666</v>
+        <v>-0.4442283756557278</v>
       </c>
       <c r="J8" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K8" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02541701500111615</v>
+        <v>0.02668887205578341</v>
       </c>
       <c r="M8" t="n">
-        <v>14.44066530951136</v>
+        <v>14.4437947572695</v>
       </c>
       <c r="N8" t="n">
-        <v>409.887881068501</v>
+        <v>408.9492697467317</v>
       </c>
       <c r="O8" t="n">
-        <v>20.24568796234154</v>
+        <v>20.2224941524712</v>
       </c>
       <c r="P8" t="n">
-        <v>305.8085321185816</v>
+        <v>305.8991325430798</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19459,28 +19508,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5386310683871453</v>
+        <v>-0.5429405118244843</v>
       </c>
       <c r="J9" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K9" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03554104601862407</v>
+        <v>0.03639636427137061</v>
       </c>
       <c r="M9" t="n">
-        <v>15.3847649819265</v>
+        <v>15.35004881076018</v>
       </c>
       <c r="N9" t="n">
-        <v>444.568032673527</v>
+        <v>442.9615764145021</v>
       </c>
       <c r="O9" t="n">
-        <v>21.08478201626773</v>
+        <v>21.0466523802362</v>
       </c>
       <c r="P9" t="n">
-        <v>319.8305977773759</v>
+        <v>319.8717859187924</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19537,28 +19586,28 @@
         <v>0.0798</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7978124369661775</v>
+        <v>-0.7856338134034834</v>
       </c>
       <c r="J10" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K10" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06467516577051891</v>
+        <v>0.06320981526566249</v>
       </c>
       <c r="M10" t="n">
-        <v>16.93385208337254</v>
+        <v>16.91580634453651</v>
       </c>
       <c r="N10" t="n">
-        <v>517.0946470211502</v>
+        <v>516.2255414522683</v>
       </c>
       <c r="O10" t="n">
-        <v>22.73971519217315</v>
+        <v>22.72059729523562</v>
       </c>
       <c r="P10" t="n">
-        <v>331.2461137924913</v>
+        <v>331.1282680378663</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19615,28 +19664,28 @@
         <v>0.0767</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1808499864930526</v>
+        <v>-0.2805610404348824</v>
       </c>
       <c r="J11" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K11" t="n">
         <v>268</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002336285879543487</v>
+        <v>0.006278247900643241</v>
       </c>
       <c r="M11" t="n">
-        <v>19.97896255627607</v>
+        <v>19.64859069803508</v>
       </c>
       <c r="N11" t="n">
-        <v>791.6027012385078</v>
+        <v>706.2317457353861</v>
       </c>
       <c r="O11" t="n">
-        <v>28.1354349751076</v>
+        <v>26.57502108626419</v>
       </c>
       <c r="P11" t="n">
-        <v>326.9717459235797</v>
+        <v>327.9347656284145</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19693,28 +19742,28 @@
         <v>0.0679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1324011652535277</v>
+        <v>0.1485818338901</v>
       </c>
       <c r="J12" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K12" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001016967760824161</v>
+        <v>0.001288658345546589</v>
       </c>
       <c r="M12" t="n">
-        <v>23.03687575034423</v>
+        <v>22.99890843924874</v>
       </c>
       <c r="N12" t="n">
-        <v>1039.394746901573</v>
+        <v>1037.225496647045</v>
       </c>
       <c r="O12" t="n">
-        <v>32.2396455765502</v>
+        <v>32.20598541648812</v>
       </c>
       <c r="P12" t="n">
-        <v>318.1980271024495</v>
+        <v>318.0475382934175</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19752,7 +19801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M365"/>
+  <dimension ref="A1:M366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39797,11 +39846,7 @@
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr"/>
       <c r="E362" t="inlineStr"/>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>-46.21926160185949,166.77514138654863</t>
-        </is>
-      </c>
+      <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr">
         <is>
           <t>-46.21869428216885,166.77468607864301</t>
@@ -39916,11 +39961,7 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>-46.21823366215239,166.77034090255674</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>-46.2169863168033,166.7708345533647</t>
@@ -39988,6 +40029,69 @@
       <c r="M365" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-07 22:33:21+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>-46.219856139702685,166.77805257859723</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>-46.21959001046209,166.77717700659596</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>-46.219155037109296,166.77653702960444</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>-46.2188032217407,166.77578101146773</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>-46.21860699386663,166.7748078815682</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>-46.21822098215419,166.77409957011395</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>-46.21793241393771,166.77325527935292</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>-46.217698768706185,166.77233434028952</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>-46.217352912135766,166.77156997928802</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>-46.216989926618,166.77082951600505</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0520/nzd0520.xlsx
+++ b/data/nzd0520/nzd0520.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M366"/>
+  <dimension ref="A1:M367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14810,6 +14810,49 @@
         </is>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-09 22:33:30+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>250.3307692307692</v>
+      </c>
+      <c r="C367" t="n">
+        <v>221.1372727272727</v>
+      </c>
+      <c r="D367" t="n">
+        <v>222.31</v>
+      </c>
+      <c r="E367" t="n">
+        <v>227.2185714285714</v>
+      </c>
+      <c r="F367" t="n">
+        <v>242.23</v>
+      </c>
+      <c r="G367" t="n">
+        <v>260.9607692307692</v>
+      </c>
+      <c r="H367" t="n">
+        <v>267.1685714285715</v>
+      </c>
+      <c r="I367" t="n">
+        <v>278.86</v>
+      </c>
+      <c r="J367" t="n">
+        <v>288.66</v>
+      </c>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>305.49</v>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14821,7 +14864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B396"/>
+  <dimension ref="A1:B397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18789,6 +18832,16 @@
       </c>
       <c r="B396" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2025-10-09 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -19801,7 +19854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M366"/>
+  <dimension ref="A1:M367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40095,6 +40148,69 @@
         </is>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-09 22:33:30+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>-46.22046325397831,166.77845234823008</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>-46.21986747388444,166.7780367633554</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>-46.21946744838565,166.77734802586082</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>-46.21909150272966,166.77662568378273</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>-46.21878068081502,166.77581246471334</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>-46.218493830753225,166.77496578955882</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>-46.21812624911222,166.77423176142025</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>-46.2177940128596,166.77344840711146</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>-46.217449580035534,166.77268206684505</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>-46.216742847099674,166.7711743037451</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0520/nzd0520.xlsx
+++ b/data/nzd0520/nzd0520.xlsx
@@ -19015,28 +19015,28 @@
         <v>0.0883</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6919521238557365</v>
+        <v>-0.710983463333575</v>
       </c>
       <c r="J2" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K2" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05151432253910626</v>
+        <v>0.05442579600523889</v>
       </c>
       <c r="M2" t="n">
-        <v>16.70623428941781</v>
+        <v>16.76717100351837</v>
       </c>
       <c r="N2" t="n">
-        <v>497.9257787922249</v>
+        <v>498.3725936188185</v>
       </c>
       <c r="O2" t="n">
-        <v>22.31425057653124</v>
+        <v>22.32426020316952</v>
       </c>
       <c r="P2" t="n">
-        <v>293.2579006189859</v>
+        <v>293.444487813096</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19093,28 +19093,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6987725629798718</v>
+        <v>-0.7259516128715466</v>
       </c>
       <c r="J3" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K3" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04619116969846571</v>
+        <v>0.04976561258963275</v>
       </c>
       <c r="M3" t="n">
-        <v>18.857601822028</v>
+        <v>18.94161805780379</v>
       </c>
       <c r="N3" t="n">
-        <v>551.1576118448955</v>
+        <v>553.0375003004024</v>
       </c>
       <c r="O3" t="n">
-        <v>23.47674619373169</v>
+        <v>23.51674935658418</v>
       </c>
       <c r="P3" t="n">
-        <v>271.122673244647</v>
+        <v>271.3936038412897</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19171,28 +19171,28 @@
         <v>0.0524</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3000826045030738</v>
+        <v>-0.3146820705259403</v>
       </c>
       <c r="J4" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K4" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01527969007934005</v>
+        <v>0.0168289909944207</v>
       </c>
       <c r="M4" t="n">
-        <v>13.81740632337418</v>
+        <v>13.83503473749432</v>
       </c>
       <c r="N4" t="n">
-        <v>320.2034995312783</v>
+        <v>320.5569408899539</v>
       </c>
       <c r="O4" t="n">
-        <v>17.89423090080371</v>
+        <v>17.90410402365764</v>
       </c>
       <c r="P4" t="n">
-        <v>250.7062644516616</v>
+        <v>250.8525642876953</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19249,28 +19249,28 @@
         <v>0.0914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3359233075678297</v>
+        <v>0.3218194777850247</v>
       </c>
       <c r="J5" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K5" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02323274291157873</v>
+        <v>0.02140999605891569</v>
       </c>
       <c r="M5" t="n">
-        <v>12.99350437998811</v>
+        <v>13.00726162929581</v>
       </c>
       <c r="N5" t="n">
-        <v>265.8940960283601</v>
+        <v>266.4031720768109</v>
       </c>
       <c r="O5" t="n">
-        <v>16.30625941251887</v>
+        <v>16.32186178341217</v>
       </c>
       <c r="P5" t="n">
-        <v>238.8201548191599</v>
+        <v>238.9601190927868</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19327,28 +19327,28 @@
         <v>0.0745</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4101562995737112</v>
+        <v>-0.4271350869277139</v>
       </c>
       <c r="J6" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K6" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03754681550951033</v>
+        <v>0.04055356916589292</v>
       </c>
       <c r="M6" t="n">
-        <v>12.52549447130898</v>
+        <v>12.57083135292726</v>
       </c>
       <c r="N6" t="n">
-        <v>246.8199350375501</v>
+        <v>248.0982179630589</v>
       </c>
       <c r="O6" t="n">
-        <v>15.71050397146922</v>
+        <v>15.75113386277505</v>
       </c>
       <c r="P6" t="n">
-        <v>277.7963509947162</v>
+        <v>277.961033742647</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19405,28 +19405,28 @@
         <v>0.0776</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3444442844911494</v>
+        <v>-0.3605362924778583</v>
       </c>
       <c r="J7" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K7" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03552125373521064</v>
+        <v>0.03863676700639962</v>
       </c>
       <c r="M7" t="n">
-        <v>10.68040929060184</v>
+        <v>10.73533031119649</v>
       </c>
       <c r="N7" t="n">
-        <v>183.9096061800087</v>
+        <v>185.3519249594952</v>
       </c>
       <c r="O7" t="n">
-        <v>13.56132759651535</v>
+        <v>13.61440138087221</v>
       </c>
       <c r="P7" t="n">
-        <v>294.8050655405469</v>
+        <v>294.9631579333656</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19483,28 +19483,28 @@
         <v>0.0853</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4442283756557278</v>
+        <v>-0.4644169748176401</v>
       </c>
       <c r="J8" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K8" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02668887205578341</v>
+        <v>0.02915206571709306</v>
       </c>
       <c r="M8" t="n">
-        <v>14.4437947572695</v>
+        <v>14.51390915269881</v>
       </c>
       <c r="N8" t="n">
-        <v>408.9492697467317</v>
+        <v>410.1383978704753</v>
       </c>
       <c r="O8" t="n">
-        <v>20.2224941524712</v>
+        <v>20.25187393478626</v>
       </c>
       <c r="P8" t="n">
-        <v>305.8991325430798</v>
+        <v>306.0933872330377</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19561,28 +19561,28 @@
         <v>0.0569</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5429405118244843</v>
+        <v>-0.5638041656810283</v>
       </c>
       <c r="J9" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K9" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03639636427137061</v>
+        <v>0.03923971050726049</v>
       </c>
       <c r="M9" t="n">
-        <v>15.35004881076018</v>
+        <v>15.41089735318326</v>
       </c>
       <c r="N9" t="n">
-        <v>442.9615764145021</v>
+        <v>444.0041182615777</v>
       </c>
       <c r="O9" t="n">
-        <v>21.0466523802362</v>
+        <v>21.0714052275015</v>
       </c>
       <c r="P9" t="n">
-        <v>319.8717859187924</v>
+        <v>320.0719817251977</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19639,28 +19639,28 @@
         <v>0.0798</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7856338134034834</v>
+        <v>-0.8015472391134643</v>
       </c>
       <c r="J10" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K10" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06320981526566249</v>
+        <v>0.06592633844453732</v>
       </c>
       <c r="M10" t="n">
-        <v>16.91580634453651</v>
+        <v>16.95593302441328</v>
       </c>
       <c r="N10" t="n">
-        <v>516.2255414522683</v>
+        <v>516.0897554168945</v>
       </c>
       <c r="O10" t="n">
-        <v>22.72059729523562</v>
+        <v>22.71760892824979</v>
       </c>
       <c r="P10" t="n">
-        <v>331.1282680378663</v>
+        <v>331.2828684337708</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19720,7 +19720,7 @@
         <v>-0.2805610404348824</v>
       </c>
       <c r="J11" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K11" t="n">
         <v>268</v>
@@ -19795,28 +19795,28 @@
         <v>0.0679</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1485818338901</v>
+        <v>0.1366548494583197</v>
       </c>
       <c r="J12" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K12" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001288658345546589</v>
+        <v>0.001098245668491593</v>
       </c>
       <c r="M12" t="n">
-        <v>22.99890843924874</v>
+        <v>22.99768926898802</v>
       </c>
       <c r="N12" t="n">
-        <v>1037.225496647045</v>
+        <v>1034.21508696053</v>
       </c>
       <c r="O12" t="n">
-        <v>32.20598541648812</v>
+        <v>32.15921465086686</v>
       </c>
       <c r="P12" t="n">
-        <v>318.0475382934175</v>
+        <v>318.1589600844815</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">

--- a/data/nzd0520/nzd0520.xlsx
+++ b/data/nzd0520/nzd0520.xlsx
@@ -19006,13 +19006,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.065</v>
+        <v>0.135</v>
       </c>
       <c r="G2" t="n">
-        <v>0.054</v>
+        <v>0.0604</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0883</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.7109364132138473</v>
@@ -19087,10 +19087,10 @@
         <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.045</v>
+        <v>0.0365</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0702</v>
+        <v>0.1282</v>
       </c>
       <c r="I3" t="n">
         <v>-0.7259521502562677</v>
@@ -19162,13 +19162,13 @@
         <v>0.7999999999988493</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0394</v>
+        <v>0.0246</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0524</v>
+        <v>0.0463</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3146468070378004</v>
@@ -19240,13 +19240,13 @@
         <v>0.699999999999865</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0594</v>
+        <v>0.0334</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0914</v>
+        <v>0.101</v>
       </c>
       <c r="I5" t="n">
         <v>0.3217878027048958</v>
@@ -19318,13 +19318,13 @@
         <v>0.5999999999986789</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0472</v>
+        <v>0.0334</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0745</v>
+        <v>0.0733</v>
       </c>
       <c r="I6" t="n">
         <v>-0.4271330933604434</v>
@@ -19396,13 +19396,13 @@
         <v>0.4999999999974928</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0528</v>
+        <v>0.0359</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0776</v>
+        <v>0.0789</v>
       </c>
       <c r="I7" t="n">
         <v>-0.3604818689604327</v>
@@ -19474,13 +19474,13 @@
         <v>0.3999999999963068</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0561</v>
+        <v>0.0624</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0853</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>-0.4644567083264946</v>
@@ -19552,13 +19552,13 @@
         <v>0.2999999999979332</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0457</v>
+        <v>0.0503</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0569</v>
+        <v>0.1796</v>
       </c>
       <c r="I9" t="n">
         <v>-0.5638041656810282</v>
@@ -19630,13 +19630,13 @@
         <v>0.1999999999995596</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0472</v>
+        <v>0.0439</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0798</v>
+        <v>0.1378</v>
       </c>
       <c r="I10" t="n">
         <v>-0.8015527916792455</v>
@@ -19708,13 +19708,13 @@
         <v>0.100000000001186</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0505</v>
+        <v>0.0477</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0767</v>
+        <v>0.1595</v>
       </c>
       <c r="I11" t="n">
         <v>-0.2805713489643396</v>
@@ -19786,13 +19786,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="G12" t="n">
-        <v>0.031</v>
+        <v>0.0572</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0679</v>
+        <v>0.1938</v>
       </c>
       <c r="I12" t="n">
         <v>0.1366548494583197</v>

--- a/data/nzd0520/nzd0520.xlsx
+++ b/data/nzd0520/nzd0520.xlsx
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>270.33</v>
+        <v>270.43</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.08</v>
+        <v>296.11</v>
       </c>
       <c r="C4" t="n">
         <v>278.4</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>291.16</v>
+        <v>291.19</v>
       </c>
       <c r="C5" t="n">
         <v>252.63</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>296.91</v>
+        <v>296.92</v>
       </c>
       <c r="C10" t="n">
         <v>259.54</v>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>299.64</v>
+        <v>299.69</v>
       </c>
       <c r="C13" t="n">
         <v>277.18</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.49</v>
+        <v>276.3</v>
       </c>
       <c r="C14" t="n">
         <v>233.18</v>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>279.85</v>
+        <v>279.63</v>
       </c>
       <c r="C15" t="n">
         <v>210.04</v>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>243.22</v>
+        <v>243.01</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>283.62</v>
+        <v>283.78</v>
       </c>
       <c r="C18" t="n">
         <v>258.86</v>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>294.62</v>
+        <v>294.72</v>
       </c>
       <c r="C19" t="n">
         <v>266.17</v>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>302.68</v>
+        <v>302.85</v>
       </c>
       <c r="C20" t="n">
         <v>280.96</v>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>314.53</v>
+        <v>314.33</v>
       </c>
       <c r="C22" t="n">
         <v>294.55</v>
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>306.67</v>
+        <v>306.44</v>
       </c>
       <c r="C23" t="n">
         <v>299.41</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>306.87</v>
+        <v>306.8</v>
       </c>
       <c r="C24" t="n">
         <v>301.12</v>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>288.47</v>
+        <v>288.21</v>
       </c>
       <c r="C26" t="n">
         <v>281.04</v>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>289.2</v>
+        <v>289.16</v>
       </c>
       <c r="C27" t="n">
         <v>268.71</v>
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>316.01</v>
+        <v>315.87</v>
       </c>
       <c r="C28" t="n">
         <v>297.74</v>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>271.5</v>
+        <v>271.29</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>304.68</v>
+        <v>304.73</v>
       </c>
       <c r="C30" t="n">
         <v>284.93</v>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>294.75</v>
+        <v>294.73</v>
       </c>
       <c r="C31" t="n">
         <v>280.31</v>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>299.15</v>
+        <v>298.92</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>260.71</v>
+        <v>260.56</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.78</v>
+        <v>285.89</v>
       </c>
       <c r="C35" t="n">
         <v>262.22</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>270.94</v>
+        <v>270.95</v>
       </c>
       <c r="C36" t="n">
         <v>250.27</v>
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>284.81</v>
+        <v>284.74</v>
       </c>
       <c r="C37" t="n">
         <v>261.82</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>281.17</v>
+        <v>280.97</v>
       </c>
       <c r="C39" t="n">
         <v>275.67</v>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.59</v>
+        <v>307.81</v>
       </c>
       <c r="C40" t="n">
         <v>285.46</v>
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>292.86</v>
+        <v>293.09</v>
       </c>
       <c r="C42" t="n">
         <v>262.58</v>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>283.62</v>
+        <v>283.72</v>
       </c>
       <c r="C46" t="n">
         <v>245.89</v>
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>266.24</v>
+        <v>266.12</v>
       </c>
       <c r="C47" t="n">
         <v>269.38</v>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>302.01</v>
+        <v>301.74</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>275.32</v>
+        <v>275.13</v>
       </c>
       <c r="C49" t="n">
         <v>271.01</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>288.57</v>
+        <v>288.66</v>
       </c>
       <c r="C50" t="n">
         <v>255.53</v>
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>268.99</v>
+        <v>268.85</v>
       </c>
       <c r="C51" t="n">
         <v>219.93</v>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>270.36</v>
+        <v>270.35</v>
       </c>
       <c r="C52" t="n">
         <v>255.19</v>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>279.19</v>
+        <v>278.97</v>
       </c>
       <c r="C53" t="n">
         <v>267.12</v>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>290.49</v>
+        <v>290.63</v>
       </c>
       <c r="C54" t="n">
         <v>270.92</v>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>289.56</v>
+        <v>289.41</v>
       </c>
       <c r="C55" t="n">
         <v>279.59</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>275.57</v>
+        <v>275.71</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>299.23</v>
+        <v>299.17</v>
       </c>
       <c r="C57" t="n">
         <v>292.75</v>
@@ -2737,9 +2737,7 @@
           <t>2005-02-20 22:22:47+00:00</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>258.47</v>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
         <v>257.74</v>
       </c>
@@ -2783,7 +2781,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>298.24</v>
+        <v>298.44</v>
       </c>
       <c r="C59" t="n">
         <v>287.06</v>
@@ -2939,7 +2937,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>274.03</v>
+        <v>274.17</v>
       </c>
       <c r="C63" t="n">
         <v>285.18</v>
@@ -3015,7 +3013,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>238.53</v>
+        <v>238.63</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
@@ -3050,7 +3048,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>231.97</v>
+        <v>231.78</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
@@ -3093,7 +3091,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>303.65</v>
+        <v>303.8</v>
       </c>
       <c r="C67" t="n">
         <v>302.25</v>
@@ -3130,7 +3128,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>286.61</v>
+        <v>286.78</v>
       </c>
       <c r="C68" t="n">
         <v>267.17</v>
@@ -3175,7 +3173,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>296.97</v>
+        <v>297.09</v>
       </c>
       <c r="C69" t="n">
         <v>280.82</v>
@@ -3220,7 +3218,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>298.61</v>
+        <v>298.73</v>
       </c>
       <c r="C70" t="n">
         <v>282.11</v>
@@ -3306,7 +3304,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>294.8</v>
+        <v>294.67</v>
       </c>
       <c r="C72" t="n">
         <v>272.74</v>
@@ -3351,7 +3349,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>291.25</v>
+        <v>291.36</v>
       </c>
       <c r="C73" t="n">
         <v>271.65</v>
@@ -3396,7 +3394,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>273.21</v>
+        <v>273.03</v>
       </c>
       <c r="C74" t="n">
         <v>262.22</v>
@@ -3441,7 +3439,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>295.01</v>
+        <v>294.88</v>
       </c>
       <c r="C75" t="n">
         <v>269.17</v>
@@ -3558,7 +3556,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>281.9</v>
+        <v>282.02</v>
       </c>
       <c r="C78" t="n">
         <v>270.8</v>
@@ -3603,7 +3601,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>265.66</v>
+        <v>265.8</v>
       </c>
       <c r="C79" t="n">
         <v>238</v>
@@ -3646,7 +3644,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>266.63</v>
+        <v>266.33</v>
       </c>
       <c r="C80" t="n">
         <v>249.43</v>
@@ -3691,7 +3689,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>298.39</v>
+        <v>298.36</v>
       </c>
       <c r="C81" t="n">
         <v>273.81</v>
@@ -3736,7 +3734,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>293.5</v>
+        <v>293.68</v>
       </c>
       <c r="C82" t="n">
         <v>279</v>
@@ -3781,7 +3779,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>290.54</v>
+        <v>290.41</v>
       </c>
       <c r="C83" t="n">
         <v>276.8</v>
@@ -3826,7 +3824,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>303.98</v>
+        <v>303.79</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
@@ -3851,7 +3849,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>307.94</v>
+        <v>308.03</v>
       </c>
       <c r="C85" t="n">
         <v>279.72</v>
@@ -3894,7 +3892,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>299.97</v>
+        <v>299.96</v>
       </c>
       <c r="C86" t="n">
         <v>284.57</v>
@@ -3939,7 +3937,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>319.77</v>
+        <v>319.8</v>
       </c>
       <c r="C87" t="n">
         <v>289.48</v>
@@ -3984,7 +3982,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>278.81</v>
+        <v>278.66</v>
       </c>
       <c r="C88" t="n">
         <v>269.19</v>
@@ -4029,7 +4027,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>277.48</v>
+        <v>277.71</v>
       </c>
       <c r="C89" t="n">
         <v>251.72</v>
@@ -4097,7 +4095,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>304.41</v>
+        <v>304.53</v>
       </c>
       <c r="C91" t="n">
         <v>280.58</v>
@@ -4278,7 +4276,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>292.38</v>
+        <v>292.55</v>
       </c>
       <c r="C96" t="n">
         <v>275.11</v>
@@ -4323,7 +4321,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>273.27</v>
+        <v>273.04</v>
       </c>
       <c r="C97" t="n">
         <v>246.67</v>
@@ -4358,7 +4356,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>253.71</v>
+        <v>253.42</v>
       </c>
       <c r="C98" t="n">
         <v>213.91</v>
@@ -4459,7 +4457,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>287.96</v>
+        <v>287.95</v>
       </c>
       <c r="C101" t="n">
         <v>244.38</v>
@@ -4490,7 +4488,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>271.6</v>
+        <v>271.46</v>
       </c>
       <c r="C102" t="n">
         <v>240.06</v>
@@ -4535,7 +4533,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>291</v>
+        <v>290.77</v>
       </c>
       <c r="C103" t="n">
         <v>279.72</v>
@@ -4580,7 +4578,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>270.05</v>
+        <v>269.78</v>
       </c>
       <c r="C104" t="n">
         <v>249.96</v>
@@ -4703,7 +4701,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>328.44</v>
+        <v>328.3</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
@@ -4728,7 +4726,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>314.07</v>
+        <v>314.25</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
@@ -4769,7 +4767,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>324.71</v>
+        <v>324.59</v>
       </c>
       <c r="C109" t="n">
         <v>279.6</v>
@@ -4812,7 +4810,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>306.54</v>
+        <v>306.76</v>
       </c>
       <c r="C110" t="n">
         <v>200.55</v>
@@ -4884,7 +4882,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>278.35</v>
+        <v>278.21</v>
       </c>
       <c r="C112" t="n">
         <v>222.04</v>
@@ -4921,7 +4919,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>276.95</v>
+        <v>276.81</v>
       </c>
       <c r="C113" t="n">
         <v>252.73</v>
@@ -5005,7 +5003,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>278.74</v>
+        <v>278.83</v>
       </c>
       <c r="C115" t="n">
         <v>258.33</v>
@@ -5093,7 +5091,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>294.4</v>
+        <v>294.58</v>
       </c>
       <c r="C117" t="n">
         <v>252.61</v>
@@ -5126,7 +5124,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>288.26</v>
+        <v>288.27</v>
       </c>
       <c r="C118" t="n">
         <v>264.54</v>
@@ -5385,7 +5383,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>303.35</v>
+        <v>303.4</v>
       </c>
       <c r="C125" t="n">
         <v>284.19</v>
@@ -5430,7 +5428,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>325.67</v>
+        <v>325.55</v>
       </c>
       <c r="C126" t="n">
         <v>299.36</v>
@@ -5475,7 +5473,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>317.37</v>
+        <v>317.32</v>
       </c>
       <c r="C127" t="n">
         <v>301.66</v>
@@ -5520,7 +5518,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>269.36</v>
+        <v>269.16</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
@@ -5545,7 +5543,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>308.14</v>
+        <v>308.13</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
@@ -5588,7 +5586,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>315.4</v>
+        <v>315.6</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
@@ -5924,7 +5922,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>312.14</v>
+        <v>312.26</v>
       </c>
       <c r="C140" t="n">
         <v>291.47</v>
@@ -5996,7 +5994,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>296.85</v>
+        <v>296.67</v>
       </c>
       <c r="C142" t="n">
         <v>285.98</v>
@@ -6105,7 +6103,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>264.48</v>
+        <v>264.68</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
@@ -6183,7 +6181,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>270.91</v>
+        <v>270.86</v>
       </c>
       <c r="C147" t="n">
         <v>284.44</v>
@@ -6228,7 +6226,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>290.23</v>
+        <v>290.26</v>
       </c>
       <c r="C148" t="n">
         <v>244.2</v>
@@ -6273,7 +6271,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>297.25</v>
+        <v>297.19</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
@@ -6298,7 +6296,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>294.53</v>
+        <v>294.67</v>
       </c>
       <c r="C150" t="n">
         <v>263.9</v>
@@ -6343,7 +6341,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>290.51</v>
+        <v>290.64</v>
       </c>
       <c r="C151" t="n">
         <v>276.4</v>
@@ -6388,7 +6386,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>297.7</v>
+        <v>297.62</v>
       </c>
       <c r="C152" t="n">
         <v>283.76</v>
@@ -6433,7 +6431,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>322</v>
+        <v>322.07</v>
       </c>
       <c r="C153" t="n">
         <v>301.89</v>
@@ -6478,7 +6476,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>304.69</v>
+        <v>304.7</v>
       </c>
       <c r="C154" t="n">
         <v>287.86</v>
@@ -6523,7 +6521,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>288.33</v>
+        <v>288.43</v>
       </c>
       <c r="C155" t="n">
         <v>280.22</v>
@@ -6564,7 +6562,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>329.1</v>
+        <v>328.93</v>
       </c>
       <c r="C156" t="n">
         <v>274.25</v>
@@ -6601,7 +6599,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>291.13</v>
+        <v>290.84</v>
       </c>
       <c r="C157" t="n">
         <v>273.33</v>
@@ -6646,7 +6644,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>306.1</v>
+        <v>306.32</v>
       </c>
       <c r="C158" t="n">
         <v>273.84</v>
@@ -6691,7 +6689,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>294.5</v>
+        <v>294.41</v>
       </c>
       <c r="C159" t="n">
         <v>282.27</v>
@@ -6736,7 +6734,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>311.37</v>
+        <v>311.47</v>
       </c>
       <c r="C160" t="n">
         <v>279.98</v>
@@ -6821,7 +6819,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>333.18</v>
+        <v>333.05</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
@@ -6922,7 +6920,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>286.3</v>
+        <v>286.42</v>
       </c>
       <c r="C166" t="n">
         <v>241.73</v>
@@ -7002,7 +7000,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>277.15</v>
+        <v>277.32</v>
       </c>
       <c r="C168" t="n">
         <v>241.24</v>
@@ -7047,7 +7045,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>278.09</v>
+        <v>278.19</v>
       </c>
       <c r="C169" t="n">
         <v>262.93</v>
@@ -7092,7 +7090,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>291.9</v>
+        <v>291.95</v>
       </c>
       <c r="C170" t="n">
         <v>283.14</v>
@@ -7137,7 +7135,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>293.42</v>
+        <v>293.28</v>
       </c>
       <c r="C171" t="n">
         <v>282.19</v>
@@ -7221,7 +7219,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>297.52</v>
+        <v>297.57</v>
       </c>
       <c r="C173" t="n">
         <v>281.06</v>
@@ -7307,7 +7305,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>308.48</v>
+        <v>308.66</v>
       </c>
       <c r="C175" t="n">
         <v>290.51</v>
@@ -7379,7 +7377,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>306.45</v>
+        <v>306.59</v>
       </c>
       <c r="C177" t="n">
         <v>267.64</v>
@@ -7424,7 +7422,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>294.38</v>
+        <v>294.52</v>
       </c>
       <c r="C178" t="n">
         <v>278.28</v>
@@ -7455,7 +7453,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>282.59</v>
+        <v>282.71</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
@@ -7558,7 +7556,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>282.02</v>
+        <v>282.17</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
@@ -7593,7 +7591,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>282.31</v>
+        <v>282.45</v>
       </c>
       <c r="C183" t="n">
         <v>249.88</v>
@@ -7663,7 +7661,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>266.33</v>
+        <v>266.52</v>
       </c>
       <c r="C185" t="n">
         <v>255.96</v>
@@ -7690,7 +7688,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>260.75</v>
+        <v>260.58</v>
       </c>
       <c r="C186" t="n">
         <v>239.9</v>
@@ -7735,7 +7733,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>286.86</v>
+        <v>286.79</v>
       </c>
       <c r="C187" t="n">
         <v>270.51</v>
@@ -7780,7 +7778,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>274.32</v>
+        <v>274.2</v>
       </c>
       <c r="C188" t="n">
         <v>245.87</v>
@@ -7825,7 +7823,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>284.1</v>
+        <v>284.05</v>
       </c>
       <c r="C189" t="n">
         <v>272.34</v>
@@ -7868,7 +7866,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>296.25</v>
+        <v>296.48</v>
       </c>
       <c r="C190" t="n">
         <v>269.12</v>
@@ -7913,7 +7911,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>306.86</v>
+        <v>307</v>
       </c>
       <c r="C191" t="n">
         <v>279.16</v>
@@ -8004,7 +8002,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>245.07</v>
+        <v>245.14</v>
       </c>
       <c r="C194" t="n">
         <v>235.26</v>
@@ -8045,7 +8043,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>266.89</v>
+        <v>267.03</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
@@ -8070,7 +8068,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>271.07</v>
+        <v>271.3</v>
       </c>
       <c r="C196" t="n">
         <v>254.71</v>
@@ -8115,7 +8113,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>278.71</v>
+        <v>278.87</v>
       </c>
       <c r="C197" t="n">
         <v>257.59</v>
@@ -8152,7 +8150,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>259.59</v>
+        <v>259.33</v>
       </c>
       <c r="C198" t="n">
         <v>257.82</v>
@@ -8216,7 +8214,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>261.02</v>
+        <v>261.14</v>
       </c>
       <c r="C200" t="n">
         <v>234.99</v>
@@ -8261,7 +8259,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>279.35</v>
+        <v>279.12</v>
       </c>
       <c r="C201" t="n">
         <v>252.26</v>
@@ -8341,7 +8339,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>269.93</v>
+        <v>269.78</v>
       </c>
       <c r="C203" t="n">
         <v>260.47</v>
@@ -8386,7 +8384,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>271.25</v>
+        <v>271.19</v>
       </c>
       <c r="C204" t="n">
         <v>262.65</v>
@@ -8472,7 +8470,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>294.83</v>
+        <v>294.76</v>
       </c>
       <c r="C206" t="n">
         <v>282.38</v>
@@ -8552,7 +8550,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>299.3</v>
+        <v>299.04</v>
       </c>
       <c r="C208" t="n">
         <v>271.35</v>
@@ -8756,7 +8754,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>292.5</v>
+        <v>292.47</v>
       </c>
       <c r="C214" t="n">
         <v>243.08</v>
@@ -8799,7 +8797,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>298.64</v>
+        <v>298.54</v>
       </c>
       <c r="C215" t="n">
         <v>244.2</v>
@@ -8842,7 +8840,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>296.55</v>
+        <v>296.42</v>
       </c>
       <c r="C216" t="n">
         <v>208.93</v>
@@ -8885,7 +8883,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>305.63</v>
+        <v>305.73</v>
       </c>
       <c r="C217" t="n">
         <v>289.37</v>
@@ -8963,7 +8961,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>303.61</v>
+        <v>303.43</v>
       </c>
       <c r="C219" t="n">
         <v>265.51</v>
@@ -9008,7 +9006,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>277.97</v>
+        <v>277.7</v>
       </c>
       <c r="C220" t="n">
         <v>263.87</v>
@@ -9053,7 +9051,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>292.44</v>
+        <v>292.59</v>
       </c>
       <c r="C221" t="n">
         <v>262.78</v>
@@ -9098,7 +9096,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>292.58</v>
+        <v>292.78</v>
       </c>
       <c r="C222" t="n">
         <v>262.7</v>
@@ -9143,7 +9141,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>288.44</v>
+        <v>288.4</v>
       </c>
       <c r="C223" t="n">
         <v>274.7</v>
@@ -9188,7 +9186,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>286.71</v>
+        <v>286.59</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
@@ -9213,7 +9211,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>288.45</v>
+        <v>288.26</v>
       </c>
       <c r="C225" t="n">
         <v>281.66</v>
@@ -9258,7 +9256,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>301.88</v>
+        <v>302.04</v>
       </c>
       <c r="C226" t="n">
         <v>278.82</v>
@@ -9332,7 +9330,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>250.2</v>
+        <v>250.19</v>
       </c>
       <c r="C228" t="n">
         <v>226.52</v>
@@ -9375,7 +9373,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>277.04</v>
+        <v>276.81</v>
       </c>
       <c r="C229" t="n">
         <v>258.31</v>
@@ -9416,7 +9414,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>245.04</v>
+        <v>244.92</v>
       </c>
       <c r="C230" t="n">
         <v>239.58</v>
@@ -9509,7 +9507,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>239.58</v>
+        <v>239.74</v>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="n">
@@ -9585,7 +9583,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>310.88</v>
+        <v>310.76</v>
       </c>
       <c r="C235" t="n">
         <v>276.58</v>
@@ -9630,7 +9628,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>283.79</v>
+        <v>283.9</v>
       </c>
       <c r="C236" t="n">
         <v>245.36</v>
@@ -9675,7 +9673,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>273.62</v>
+        <v>273.47</v>
       </c>
       <c r="C237" t="n">
         <v>262.03</v>
@@ -9710,7 +9708,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>272.25</v>
+        <v>272.14</v>
       </c>
       <c r="C238" t="n">
         <v>252.05</v>
@@ -9796,7 +9794,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>285.76</v>
+        <v>285.69</v>
       </c>
       <c r="C240" t="n">
         <v>279.44</v>
@@ -9841,7 +9839,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>283.92</v>
+        <v>283.89</v>
       </c>
       <c r="C241" t="n">
         <v>271.94</v>
@@ -9886,7 +9884,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>287.03</v>
+        <v>287.19</v>
       </c>
       <c r="C242" t="n">
         <v>263.41</v>
@@ -9931,7 +9929,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>286.26</v>
+        <v>286.49</v>
       </c>
       <c r="C243" t="n">
         <v>278.03</v>
@@ -9976,7 +9974,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>285.96</v>
+        <v>285.79</v>
       </c>
       <c r="C244" t="n">
         <v>277.49</v>
@@ -10021,7 +10019,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>264.79</v>
+        <v>264.74</v>
       </c>
       <c r="C245" t="n">
         <v>264.58</v>
@@ -10060,7 +10058,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>283.96</v>
+        <v>283.9</v>
       </c>
       <c r="C246" t="n">
         <v>278.13</v>
@@ -10105,7 +10103,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>297.18</v>
+        <v>297.28</v>
       </c>
       <c r="C247" t="n">
         <v>274.37</v>
@@ -10150,7 +10148,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>288.17</v>
+        <v>287.9</v>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
@@ -10214,7 +10212,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>287.53</v>
+        <v>287.32</v>
       </c>
       <c r="C250" t="n">
         <v>284.47</v>
@@ -10259,7 +10257,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>254.79</v>
+        <v>254.61</v>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="n">
@@ -10294,7 +10292,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>282.08</v>
+        <v>282.18</v>
       </c>
       <c r="C252" t="n">
         <v>259.85</v>
@@ -10335,7 +10333,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>290.01</v>
+        <v>290.18</v>
       </c>
       <c r="C253" t="n">
         <v>271.33</v>
@@ -10374,7 +10372,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>256.1</v>
+        <v>256.25</v>
       </c>
       <c r="C254" t="n">
         <v>255.91</v>
@@ -10405,7 +10403,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>293.35</v>
+        <v>293.27</v>
       </c>
       <c r="C255" t="n">
         <v>220.38</v>
@@ -10450,7 +10448,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>294</v>
+        <v>294.08</v>
       </c>
       <c r="C256" t="n">
         <v>277.49</v>
@@ -10495,7 +10493,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>270.04</v>
+        <v>269.75</v>
       </c>
       <c r="C257" t="n">
         <v>257.56</v>
@@ -10540,7 +10538,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>290.2</v>
+        <v>290.38</v>
       </c>
       <c r="C258" t="n">
         <v>269.99</v>
@@ -10585,7 +10583,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>288.46</v>
+        <v>288.67</v>
       </c>
       <c r="C259" t="n">
         <v>264.67</v>
@@ -10671,7 +10669,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>282.7</v>
+        <v>282.94</v>
       </c>
       <c r="C261" t="n">
         <v>246.07</v>
@@ -10714,7 +10712,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>302.45</v>
+        <v>302.65</v>
       </c>
       <c r="C262" t="n">
         <v>276.3</v>
@@ -10848,7 +10846,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>278.14</v>
+        <v>277.91</v>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="n">
@@ -10889,7 +10887,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>292.15</v>
+        <v>292.23</v>
       </c>
       <c r="C267" t="n">
         <v>267.99</v>
@@ -10934,7 +10932,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>259.05</v>
+        <v>258.99</v>
       </c>
       <c r="C268" t="n">
         <v>228.75</v>
@@ -10965,7 +10963,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>243.51</v>
+        <v>243.61</v>
       </c>
       <c r="C269" t="n">
         <v>198.15</v>
@@ -11004,7 +11002,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>286.44</v>
+        <v>286.24</v>
       </c>
       <c r="C270" t="n">
         <v>279.4</v>
@@ -11041,7 +11039,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>292.91</v>
+        <v>292.7</v>
       </c>
       <c r="C271" t="n">
         <v>293.49</v>
@@ -11086,7 +11084,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>280.08</v>
+        <v>279.8</v>
       </c>
       <c r="C272" t="n">
         <v>271.1</v>
@@ -11131,7 +11129,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>277.55</v>
+        <v>277.73</v>
       </c>
       <c r="C273" t="n">
         <v>257.35</v>
@@ -11388,7 +11386,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>282.86</v>
+        <v>283.07</v>
       </c>
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="n">
@@ -11458,7 +11456,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>281.91</v>
+        <v>282.07</v>
       </c>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="n">
@@ -11497,7 +11495,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>246.29</v>
+        <v>246.06</v>
       </c>
       <c r="C283" t="n">
         <v>226.53</v>
@@ -11542,7 +11540,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>306.18</v>
+        <v>306.04</v>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
@@ -11585,7 +11583,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>299.39</v>
+        <v>299.56</v>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="n">
@@ -11628,7 +11626,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>304.69</v>
+        <v>304.85</v>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="n">
@@ -11708,7 +11706,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>305.44</v>
+        <v>305.62</v>
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="n">
@@ -11751,7 +11749,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>300.21</v>
+        <v>300.02</v>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="n">
@@ -11819,7 +11817,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>276.48</v>
+        <v>276.28</v>
       </c>
       <c r="C291" t="n">
         <v>235.78</v>
@@ -11862,7 +11860,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>250.94</v>
+        <v>251</v>
       </c>
       <c r="C292" t="n">
         <v>249.67</v>
@@ -11903,7 +11901,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>224.77</v>
+        <v>224.57</v>
       </c>
       <c r="C293" t="n">
         <v>217.05</v>
@@ -11948,7 +11946,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>205.25</v>
+        <v>205.06</v>
       </c>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="n">
@@ -11991,7 +11989,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>181.73</v>
+        <v>181.96</v>
       </c>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="n">
@@ -12034,7 +12032,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>188.34</v>
+        <v>188.51</v>
       </c>
       <c r="C296" t="n">
         <v>180.46</v>
@@ -12079,7 +12077,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>203.4</v>
+        <v>203.21</v>
       </c>
       <c r="C297" t="n">
         <v>209.37</v>
@@ -12196,7 +12194,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>238.1</v>
+        <v>237.98</v>
       </c>
       <c r="C300" t="n">
         <v>204.05</v>
@@ -12241,7 +12239,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>243.45</v>
+        <v>243.2</v>
       </c>
       <c r="C301" t="n">
         <v>221.19</v>
@@ -12311,7 +12309,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>284.4</v>
+        <v>284.59</v>
       </c>
       <c r="C303" t="n">
         <v>226.87</v>
@@ -12356,7 +12354,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>277.1</v>
+        <v>277.17</v>
       </c>
       <c r="C304" t="n">
         <v>253.6</v>
@@ -12401,7 +12399,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>293.05</v>
+        <v>292.99</v>
       </c>
       <c r="C305" t="n">
         <v>260.79</v>
@@ -12446,7 +12444,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>281.34</v>
+        <v>281.33</v>
       </c>
       <c r="C306" t="n">
         <v>258.86</v>
@@ -12491,7 +12489,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>276.45</v>
+        <v>276.24</v>
       </c>
       <c r="C307" t="n">
         <v>266.98</v>
@@ -12536,7 +12534,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>285.55</v>
+        <v>285.73</v>
       </c>
       <c r="C308" t="n">
         <v>262.85</v>
@@ -12581,7 +12579,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>292.92</v>
+        <v>292.67</v>
       </c>
       <c r="C309" t="n">
         <v>287.45</v>
@@ -12651,7 +12649,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>288.65</v>
+        <v>288.82</v>
       </c>
       <c r="C311" t="n">
         <v>265.88</v>
@@ -12735,7 +12733,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>310.71</v>
+        <v>310.87</v>
       </c>
       <c r="C313" t="n">
         <v>269.11</v>
@@ -12780,7 +12778,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>286.92</v>
+        <v>286.89</v>
       </c>
       <c r="C314" t="n">
         <v>269</v>
@@ -12825,7 +12823,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>300.42</v>
+        <v>300.6</v>
       </c>
       <c r="C315" t="n">
         <v>265.09</v>
@@ -12870,7 +12868,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>269.52</v>
+        <v>269.5</v>
       </c>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr"/>
@@ -12895,7 +12893,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>291.44</v>
+        <v>291.66</v>
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="n">
@@ -12936,7 +12934,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>295.98</v>
+        <v>296.15</v>
       </c>
       <c r="C318" t="n">
         <v>286.5</v>
@@ -13045,7 +13043,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>293.06</v>
+        <v>293.25</v>
       </c>
       <c r="C321" t="n">
         <v>267.48</v>
@@ -13121,7 +13119,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>290.35</v>
+        <v>290.52</v>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="n">
@@ -13189,7 +13187,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>258.58</v>
+        <v>258.65</v>
       </c>
       <c r="C325" t="n">
         <v>232.71</v>
@@ -13234,7 +13232,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>257.88</v>
+        <v>257.63</v>
       </c>
       <c r="C326" t="n">
         <v>254.43</v>
@@ -13279,7 +13277,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>269.29</v>
+        <v>269.43</v>
       </c>
       <c r="C327" t="n">
         <v>251</v>
@@ -13322,7 +13320,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>283.75</v>
+        <v>283.61</v>
       </c>
       <c r="C328" t="n">
         <v>276.71</v>
@@ -13367,7 +13365,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>280.14</v>
+        <v>280.23</v>
       </c>
       <c r="C329" t="n">
         <v>259.69</v>
@@ -13486,7 +13484,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>290.35</v>
+        <v>290.5</v>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="n">
@@ -13628,7 +13626,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>261.68</v>
+        <v>261.86</v>
       </c>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr"/>
@@ -13692,7 +13690,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>281.74</v>
+        <v>281.91</v>
       </c>
       <c r="C338" t="n">
         <v>248.2</v>
@@ -13737,7 +13735,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>249.8</v>
+        <v>249.6</v>
       </c>
       <c r="C339" t="n">
         <v>213.64</v>
@@ -13782,7 +13780,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>213.54</v>
+        <v>213.31</v>
       </c>
       <c r="C340" t="n">
         <v>213.31</v>
@@ -13852,7 +13850,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>292.19</v>
+        <v>292.29</v>
       </c>
       <c r="C342" t="n">
         <v>242.84</v>
@@ -13897,7 +13895,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>253.61</v>
+        <v>253.49</v>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="n">
@@ -13940,7 +13938,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>292.03</v>
+        <v>291.95</v>
       </c>
       <c r="C344" t="n">
         <v>273.86</v>
@@ -13983,7 +13981,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>238.39</v>
+        <v>238.46</v>
       </c>
       <c r="C345" t="n">
         <v>218.01</v>
@@ -14028,7 +14026,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>250.51</v>
+        <v>250.3</v>
       </c>
       <c r="C346" t="n">
         <v>236.12</v>
@@ -14073,7 +14071,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>249.14</v>
+        <v>248.84</v>
       </c>
       <c r="C347" t="n">
         <v>230.75</v>
@@ -14118,7 +14116,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>300.17</v>
+        <v>299.96</v>
       </c>
       <c r="C348" t="n">
         <v>298.51</v>
@@ -14163,7 +14161,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>294.65</v>
+        <v>294.89</v>
       </c>
       <c r="C349" t="n">
         <v>265.44</v>
@@ -14208,7 +14206,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>312.5</v>
+        <v>312.71</v>
       </c>
       <c r="C350" t="n">
         <v>274.06</v>
@@ -14253,7 +14251,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>309.89</v>
+        <v>310.03</v>
       </c>
       <c r="C351" t="n">
         <v>280.22</v>
@@ -14298,7 +14296,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>304.99</v>
+        <v>304.77</v>
       </c>
       <c r="C352" t="n">
         <v>289.41</v>
@@ -14331,7 +14329,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>302.74</v>
+        <v>302.7</v>
       </c>
       <c r="C353" t="n">
         <v>291.43</v>
@@ -14376,7 +14374,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>296.61</v>
+        <v>296.56</v>
       </c>
       <c r="C354" t="n">
         <v>274.74</v>
@@ -14413,7 +14411,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>293.21</v>
+        <v>293.24</v>
       </c>
       <c r="C355" t="n">
         <v>270.45</v>
@@ -14458,7 +14456,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>287</v>
+        <v>287.17</v>
       </c>
       <c r="C356" t="inlineStr"/>
       <c r="D356" t="n">
@@ -14640,7 +14638,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>292.93</v>
+        <v>292.68</v>
       </c>
       <c r="C362" t="n">
         <v>256.2</v>
@@ -14675,7 +14673,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>241.14</v>
+        <v>240.93</v>
       </c>
       <c r="C363" t="n">
         <v>238.24</v>
@@ -14706,7 +14704,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>238.05</v>
+        <v>237.91</v>
       </c>
       <c r="C364" t="n">
         <v>209.26</v>
@@ -14790,7 +14788,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>251.77</v>
+        <v>251.81</v>
       </c>
       <c r="C366" t="n">
         <v>221.14</v>
@@ -14835,7 +14833,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>277.95</v>
+        <v>277.74</v>
       </c>
       <c r="C367" t="n">
         <v>280.61</v>
@@ -14880,7 +14878,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>276.86</v>
+        <v>277.06</v>
       </c>
       <c r="C368" t="n">
         <v>265.45</v>
@@ -19100,28 +19098,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6711318099318716</v>
+        <v>-0.6910325096733654</v>
       </c>
       <c r="J2" t="n">
         <v>367</v>
       </c>
       <c r="K2" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05001789604323537</v>
+        <v>0.05281502268428107</v>
       </c>
       <c r="M2" t="n">
-        <v>16.69721245633078</v>
+        <v>16.66722968218316</v>
       </c>
       <c r="N2" t="n">
-        <v>492.2339870970269</v>
+        <v>491.5814060819874</v>
       </c>
       <c r="O2" t="n">
-        <v>22.1863468623617</v>
+        <v>22.17163516933263</v>
       </c>
       <c r="P2" t="n">
-        <v>293.4388143163031</v>
+        <v>293.8533123360593</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20065,7 +20063,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-46.220592179823534,166.77827244849107</t>
+          <t>-46.22059282447672,166.77827154895562</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -20128,7 +20126,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-46.22075817775074,166.7780408174181</t>
+          <t>-46.22075837114606,166.7780405475558</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -20195,7 +20193,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-46.22072646090725,166.7780850748037</t>
+          <t>-46.2207266543027,166.77808480494173</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -20430,7 +20428,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-46.22076352835449,166.77803335122806</t>
+          <t>-46.220763592819594,166.77803326127392</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -20551,7 +20549,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-46.22078112732428,166.7780087937493</t>
+          <t>-46.220781449649685,166.77800834397848</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -20614,7 +20612,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-46.220631890445105,166.77821703706923</t>
+          <t>-46.220630665604986,166.77821874618894</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -20677,7 +20675,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-46.22065355077104,166.77818681262337</t>
+          <t>-46.22065213253569,166.7781887916057</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -20807,7 +20805,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-46.22041741403953,166.77851631176208</t>
+          <t>-46.22041606026312,166.77851820077433</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -20870,7 +20868,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-46.22067785416143,166.778152900047</t>
+          <t>-46.220678885604805,166.77815146078578</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -20937,7 +20935,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-46.220748765843965,166.77805395071266</t>
+          <t>-46.22074941049517,166.7780530511721</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -21004,7 +21002,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-46.22080072470472,166.77798144767377</t>
+          <t>-46.220801820610625,166.77797991845185</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -21122,7 +21120,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-46.22087711573698,166.77787485176447</t>
+          <t>-46.22087582643781,166.77787665085404</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -21189,7 +21187,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-46.220826446255025,166.7779455559199</t>
+          <t>-46.220824963559494,166.777947624869</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -21256,7 +21254,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-46.220827735555446,166.7779437568336</t>
+          <t>-46.220827284300306,166.7779443865138</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -21366,7 +21364,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-46.22070911977914,166.7781092724176</t>
+          <t>-46.22070744368467,166.77811161121963</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -21433,7 +21431,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-46.220713825736425,166.7781027057804</t>
+          <t>-46.22071356787578,166.77810306559616</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -21500,7 +21498,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-46.2208866565498,166.77786153849917</t>
+          <t>-46.220885754040566,166.7778627978623</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -21563,7 +21561,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-46.22059972226542,166.77826192392524</t>
+          <t>-46.22059836849387,166.7782638129501</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -21622,7 +21620,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-46.220813617714015,166.7779634568239</t>
+          <t>-46.22081394003921,166.77796300705256</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -21689,7 +21687,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-46.22074960389053,166.77805278130992</t>
+          <t>-46.22074947496028,166.77805296121804</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -21756,7 +21754,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-46.22077796853529,166.77801320150306</t>
+          <t>-46.22077648583836,166.77801527044855</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -21874,7 +21872,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-46.2205301641477,166.77835898369975</t>
+          <t>-46.220529197166705,166.7783603329998</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -21921,7 +21919,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-46.22069177864511,166.77813347001614</t>
+          <t>-46.22069248776223,166.77813248052357</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -21988,7 +21986,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-46.22059611220789,166.77826696132465</t>
+          <t>-46.22059617667322,166.77826687137107</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -22055,7 +22053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-46.22068552552097,166.77814219554048</t>
+          <t>-46.220685074264566,166.77814282521743</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -22173,7 +22171,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-46.22066206018226,166.77817493872737</t>
+          <t>-46.22066077087763,166.7781767378028</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -22240,7 +22238,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-46.220832377036714,166.77793728012222</t>
+          <t>-46.220833795267005,166.77793530112683</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -22366,7 +22364,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-46.220737419981425,166.77806978262342</t>
+          <t>-46.220738902679514,166.7780677136809</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -22538,7 +22536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-46.22067785416143,166.778152900047</t>
+          <t>-46.22067849881354,166.77815200050873</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -22581,7 +22579,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-46.22056581350076,166.77830923947175</t>
+          <t>-46.22056503991652,166.77831031891319</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -22624,7 +22622,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-46.22079640554587,166.7779874746066</t>
+          <t>-46.220794664989214,166.77798990337027</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -22655,7 +22653,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-46.22062434800802,166.77822756164744</t>
+          <t>-46.220623123167705,166.77822927076667</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -22714,7 +22712,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-46.22070976443086,166.7781083728783</t>
+          <t>-46.22071034461738,166.77810756329296</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -22781,7 +22779,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-46.2205835414699,166.7782845022637</t>
+          <t>-46.22058263895525,166.77828576161286</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -22848,7 +22846,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-46.22059237321948,166.77827217863043</t>
+          <t>-46.220592308754156,166.77827226858398</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -22915,7 +22913,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-46.220649296064884,166.77819274956997</t>
+          <t>-46.22064787782944,166.778194728552</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -22946,7 +22944,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-46.220722141742066,166.77809110172012</t>
+          <t>-46.22072304425423,166.77808984236452</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -23013,7 +23011,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-46.22071614648232,166.77809946743835</t>
+          <t>-46.22071517950489,166.77810081674755</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -23080,7 +23078,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-46.22062595963997,166.77822531280617</t>
+          <t>-46.22062686215384,166.778224053455</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -23135,7 +23133,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-46.22077848425596,166.77801248186984</t>
+          <t>-46.220778097465455,166.77801302159475</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -23196,11 +23194,7 @@
           <t>2005-02-20 22:22:47+00:00</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>-46.220515723896284,166.77837913324197</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>-46.22010343409466,166.7777075120818</t>
@@ -23265,7 +23259,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-46.22077210221234,166.77802138733014</t>
+          <t>-46.22077339151415,166.7780195882474</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -23485,7 +23479,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-46.22061603198633,166.77823916566618</t>
+          <t>-46.220616934500384,166.77823790631547</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -23591,7 +23585,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-46.220387179691144,166.77855849967983</t>
+          <t>-46.22038782434696,166.77855760015115</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -23638,7 +23632,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-46.22034489025248,166.77861750871463</t>
+          <t>-46.220343665405395,166.7786192178164</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -23701,7 +23695,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-46.22080697781464,166.77797272211265</t>
+          <t>-46.22080794479033,166.7779713727989</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -23752,7 +23746,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-46.220697129255875,166.77812600384425</t>
+          <t>-46.22069822516403,166.77812447462813</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -23819,7 +23813,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-46.220763915145085,166.7780328115034</t>
+          <t>-46.22076468872631,166.7780317320541</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -23886,7 +23880,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-46.220774487420634,166.77801805902703</t>
+          <t>-46.2207752610017,166.7780169795773</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -24012,7 +24006,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-46.22074992621613,166.7780523315396</t>
+          <t>-46.22074908816957,166.7780535009424</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -24079,7 +24073,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-46.220727041093596,166.77808426521784</t>
+          <t>-46.22072775021021,166.778083275724</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -24146,7 +24140,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-46.220610745832296,166.7782465418623</t>
+          <t>-46.22060958545696,166.7782481610271</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -24213,7 +24207,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-46.220751279983624,166.77805044250428</t>
+          <t>-46.22075044193708,166.77805161190713</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -24378,7 +24372,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-46.22066676614392,166.7781683721015</t>
+          <t>-46.22066753972662,166.77816729265604</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -24445,7 +24439,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-46.22056207451013,166.77831445677177</t>
+          <t>-46.22056297702514,166.77831319742359</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -24508,7 +24502,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-46.2205683276495,166.77830573128688</t>
+          <t>-46.22056639368895,166.77830842989064</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -24575,7 +24569,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-46.220773069188695,166.7780200380181</t>
+          <t>-46.22077287579342,166.7780203078805</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -24642,7 +24636,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-46.22074154574992,166.77806402556573</t>
+          <t>-46.220742706122245,166.77806240639308</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -24709,7 +24703,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-46.22072246406784,166.77809065195027</t>
+          <t>-46.220721626020826,166.77809182135186</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -24776,7 +24770,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-46.22080910516114,166.77796975362233</t>
+          <t>-46.22080788032528,166.77797146275316</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -24803,7 +24797,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-46.220834633312165,166.77793413172043</t>
+          <t>-46.22083521349727,166.77793332213136</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -24866,7 +24860,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-46.220783254671886,166.7780058252618</t>
+          <t>-46.2207831902068,166.77800591521597</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -24933,7 +24927,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-46.220910895363474,166.77782771558802</t>
+          <t>-46.22091108875822,166.77782744572426</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -25000,7 +24994,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-46.220646846385435,166.77819616781156</t>
+          <t>-46.22064587940666,166.77819751711735</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -25067,7 +25061,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-46.2206382725064,166.77820813165462</t>
+          <t>-46.2206397552074,166.77820606271965</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -25157,7 +25151,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-46.22081187715795,166.77796588558914</t>
+          <t>-46.22081265073843,166.77796480613793</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -25404,7 +25398,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-46.22073432565484,166.77807410041612</t>
+          <t>-46.220735421562196,166.77807257119792</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -25471,7 +25465,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-46.22061113262408,166.7782460021407</t>
+          <t>-46.22060964992225,166.7782480710735</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -25518,7 +25512,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-46.22048503834836,166.77842195098387</t>
+          <t>-46.22048316885009,166.77842455962625</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -25651,7 +25645,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-46.220705832055295,166.77811386006758</t>
+          <t>-46.220705767590125,166.7781139500215</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -25690,7 +25684,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-46.22060036691851,166.77826102438956</t>
+          <t>-46.22059946440416,166.7782622837395</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -25757,7 +25751,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-46.22072542946484,166.7780865140674</t>
+          <t>-46.22072394676636,166.7780885830089</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -25824,7 +25818,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-46.22059037479453,166.77827496719013</t>
+          <t>-46.22058863423079,166.7782773959355</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -26001,7 +25995,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-46.220966786413584,166.77774972487805</t>
+          <t>-46.22096588390576,166.77775098424485</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -26028,7 +26022,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-46.22087415034885,166.7778789896703</t>
+          <t>-46.22087531071815,166.77787737048982</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -26087,7 +26081,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-46.220942741021275,166.77778327799427</t>
+          <t>-46.22094196744276,166.7777843574506</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -26150,7 +26144,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-46.22082560820973,166.77794672532593</t>
+          <t>-46.220827026440226,166.77794474633103</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -26248,7 +26242,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-46.22064388098382,166.7782003056825</t>
+          <t>-46.22064297847026,166.77820156503446</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -26299,7 +26293,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-46.22063485584743,166.77821289920007</t>
+          <t>-46.220633953333696,166.7782141585516</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -26421,7 +26415,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-46.220646395128675,166.7781967974876</t>
+          <t>-46.22064697531593,166.77819598790413</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -26551,7 +26545,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-46.22074734761129,166.77805592970188</t>
+          <t>-46.22074850798349,166.7780543105289</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -26594,7 +26588,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-46.22070776601053,166.77811116145</t>
+          <t>-46.220707830475696,166.77811107149608</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -26951,7 +26945,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-46.220805043863194,166.77797542074003</t>
+          <t>-46.220805366188436,166.7779749709688</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -27018,7 +27012,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-46.2209489296488,166.7777746423425</t>
+          <t>-46.22094815607039,166.7777757217991</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -27085,7 +27079,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-46.22089542378162,166.7778493046837</t>
+          <t>-46.22089510145695,166.7778497544564</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -27152,7 +27146,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-46.2205859266871,166.77828117398357</t>
+          <t>-46.220584637380526,166.77828297305393</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -27179,7 +27173,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-46.22083592261237,166.7779323326336</t>
+          <t>-46.22083585814737,166.77793242258795</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -27242,7 +27236,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-46.22088272418799,166.77786702572394</t>
+          <t>-46.220884013486966,166.77786522663393</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -27684,7 +27678,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-46.220861708609796,166.77789635087902</t>
+          <t>-46.22086248218952,166.77789527142588</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -27782,7 +27776,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-46.22076314156387,166.77803389095266</t>
+          <t>-46.22076198119202,166.77803551012653</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -27931,7 +27925,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-46.22055446759727,166.7783250712765</t>
+          <t>-46.220555756904616,166.77832327220813</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -28041,7 +28035,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-46.22059591881195,166.77826723118528</t>
+          <t>-46.22059559648538,166.77826768095304</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -28108,7 +28102,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-46.220720465648014,166.77809344052326</t>
+          <t>-46.22072065904349,166.77809317066135</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -28175,7 +28169,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-46.220765720167904,166.77803029278834</t>
+          <t>-46.2207653333773,166.77803083251302</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -28202,7 +28196,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-46.220748185657875,166.77805476029917</t>
+          <t>-46.22074908816957,166.7780535009424</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -28269,7 +28263,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-46.22072227067237,166.77809092181218</t>
+          <t>-46.220723108719376,166.77808975241055</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -28336,7 +28330,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-46.22076862109729,166.77802624485304</t>
+          <t>-46.22076810537652,166.77802696448603</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -28403,7 +28397,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-46.220925271037395,166.77780765570898</t>
+          <t>-46.22092572229166,166.77780702602655</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -28470,7 +28464,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-46.220813682179056,166.77796336686964</t>
+          <t>-46.2208137466441,166.77796327691536</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -28537,7 +28531,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-46.22070821726675,166.77811053177254</t>
+          <t>-46.22070886191845,166.77810963223328</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -28596,7 +28590,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-46.22097104109307,166.77774378786245</t>
+          <t>-46.220969945190824,166.77774531709383</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -28647,7 +28641,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-46.22072626751181,166.77808534466564</t>
+          <t>-46.22072439802243,166.77808795333107</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -28714,7 +28708,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-46.22082277174863,166.77795068331534</t>
+          <t>-46.2208241899792,166.7779487043207</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -28781,7 +28775,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-46.22074799226252,166.77805503016134</t>
+          <t>-46.220747412076406,166.77805583974782</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -28848,7 +28842,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-46.22085674480631,166.77790327736943</t>
+          <t>-46.22085738945614,166.77790237782528</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -28949,7 +28943,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-46.220997342740176,166.77770708629092</t>
+          <t>-46.22099650469771,166.77770825570428</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -29082,7 +29076,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-46.22069513083505,166.77812879241466</t>
+          <t>-46.2206959044173,166.7781277129681</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -29196,7 +29190,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-46.22063614515271,166.77821110012638</t>
+          <t>-46.2206372410622,166.77820957091367</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -29263,7 +29257,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-46.220642204887184,166.77820264447894</t>
+          <t>-46.22064284953975,166.77820174494187</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -29330,7 +29324,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-46.22073123132807,166.77807841820834</t>
+          <t>-46.220731553653785,166.77807796843834</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -29397,7 +29391,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-46.22074103002888,166.77806474519798</t>
+          <t>-46.22074012751705,166.7780660045544</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -29519,7 +29513,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-46.220767460725554,166.77802786402722</t>
+          <t>-46.22076778305104,166.7780274142566</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -29645,7 +29639,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-46.22083811442267,166.7779292741858</t>
+          <t>-46.22083927479278,166.77792765500743</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -29743,7 +29737,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-46.220825028024514,166.7779475349147</t>
+          <t>-46.220825930534836,166.77794627555437</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -29810,7 +29804,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-46.22074721868103,166.77805610961</t>
+          <t>-46.220748121192756,166.77805485025323</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -29849,7 +29843,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-46.22067121424427,166.77816216528967</t>
+          <t>-46.22067198782688,166.77816108584406</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -29986,7 +29980,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-46.22066753972662,166.77816729265604</t>
+          <t>-46.220668506704975,166.77816594334917</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -30033,7 +30027,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-46.22066940921807,166.77816468399604</t>
+          <t>-46.22067031173118,166.77816342464288</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -30127,7 +30121,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-46.22056639368895,166.77830842989064</t>
+          <t>-46.22056761853064,166.77830672077494</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -30158,7 +30152,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-46.22053042200929,166.7783586238864</t>
+          <t>-46.220529326097505,166.7783601530931</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -30225,7 +30219,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-46.22069874088551,166.778123754997</t>
+          <t>-46.22069828962922,166.77812438467427</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -30292,7 +30286,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-46.2206179014797,166.7782365570111</t>
+          <t>-46.22061712789624,166.7782376364546</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -30359,7 +30353,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-46.22068094849146,166.7781485822632</t>
+          <t>-46.22068062616543,166.7781490320324</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -30422,7 +30416,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-46.22075927365757,166.77803928819856</t>
+          <t>-46.22076075635501,166.7780372192544</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -30489,7 +30483,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-46.220827671090426,166.7779438467879</t>
+          <t>-46.220828573600706,166.77794258742745</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -30602,7 +30596,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-46.22042934016347,166.7784996704597</t>
+          <t>-46.22042979142216,166.7784990407887</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -30661,7 +30655,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-46.220570003748584,166.77830339249675</t>
+          <t>-46.220570906263454,166.77830213314817</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -30688,7 +30682,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-46.22059695025698,166.7782657919284</t>
+          <t>-46.220598432959186,166.7782637229965</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -30755,7 +30749,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-46.22064620173294,166.77819706734877</t>
+          <t>-46.220647233176926,166.7781956280892</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -30806,7 +30800,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-46.220522944022505,166.7783690584722</t>
+          <t>-46.220521267921875,166.77837139725827</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -30888,7 +30882,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-46.22053216257504,166.7783561951462</t>
+          <t>-46.220532936159785,166.77835511570606</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -30955,7 +30949,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-46.22065032750885,166.7781913103103</t>
+          <t>-46.22064884480817,166.7781933792461</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -31069,7 +31063,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-46.22058960121067,166.77827604663253</t>
+          <t>-46.22058863423079,166.7782773959355</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -31136,7 +31130,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-46.22059811063263,166.77826417276432</t>
+          <t>-46.22059772384074,166.77826471248568</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -31262,7 +31256,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-46.22075011961148,166.77805206167744</t>
+          <t>-46.22074966835566,166.77805269135584</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -31376,7 +31370,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-46.22077893551153,166.77801185219076</t>
+          <t>-46.220777259419364,166.77801419099873</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -31646,7 +31640,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-46.22073509923651,166.77807302096798</t>
+          <t>-46.22073490584109,166.77807329083</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -31709,7 +31703,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-46.220774680815914,166.7780177891646</t>
+          <t>-46.220774036165025,166.77801868870603</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -31772,7 +31766,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-46.22076120761075,166.77803658957572</t>
+          <t>-46.22076036956439,166.77803775897897</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -31835,7 +31829,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-46.22081974189229,166.77795491116726</t>
+          <t>-46.22082038654259,166.77795401162433</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -31945,7 +31939,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-46.22080671995446,166.77797308192964</t>
+          <t>-46.22080555958359,166.77797470110607</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -32012,7 +32006,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-46.2206414313041,166.7782037239234</t>
+          <t>-46.22063969074213,166.77820615267333</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -32079,7 +32073,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-46.22073471244569,166.77807356069206</t>
+          <t>-46.220735679422745,166.77807221138187</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -32146,7 +32140,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-46.220735614957604,166.7780723013359</t>
+          <t>-46.22073690426034,166.77807050225556</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -32213,7 +32207,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-46.22070892638363,166.77810954227937</t>
+          <t>-46.220708668522946,166.77810990209508</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -32280,7 +32274,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-46.22069777390772,166.77812510430536</t>
+          <t>-46.220697000325494,166.77812618375202</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -32307,7 +32301,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-46.220708990848806,166.77810945232545</t>
+          <t>-46.22070776601053,166.77811116145</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -32374,7 +32368,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-46.220795567500076,166.77798864401134</t>
+          <t>-46.22079659894105,166.77798720474394</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -32476,7 +32470,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-46.22046241096813,166.77845352454003</t>
+          <t>-46.220462346502636,166.77845361449317</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -32539,7 +32533,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-46.22063543603482,166.77821208961691</t>
+          <t>-46.220633953333696,166.7782141585516</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -32598,7 +32592,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-46.220429146766875,166.77849994031874</t>
+          <t>-46.22042837318055,166.77850101975477</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -32715,7 +32709,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-46.22039394857668,166.7785490546277</t>
+          <t>-46.220394980025816,166.77854761538146</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -32821,7 +32815,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-46.22085358602202,166.7779076851354</t>
+          <t>-46.22085281244217,166.7779087645882</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -32888,7 +32882,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-46.22067895007,166.77815137083195</t>
+          <t>-46.22067965918732,166.77815038133986</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -32955,7 +32949,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-46.220613388909385,166.77824285376443</t>
+          <t>-46.220612421929985,166.77824420306857</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -33002,7 +32996,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-46.22060455716347,166.77825517740717</t>
+          <t>-46.22060384804511,166.77825616689657</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -33128,7 +33122,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-46.22069164971472,166.7781336499239</t>
+          <t>-46.22069119845836,166.77813427960098</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -33195,7 +33189,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-46.220679788117735,166.77815020143217</t>
+          <t>-46.220679594722114,166.77815047129369</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -33262,7 +33256,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-46.220699836793635,166.77812222578083</t>
+          <t>-46.22070086823655,166.77812078651846</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -33329,7 +33323,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-46.220694872974306,166.77812915223018</t>
+          <t>-46.22069635567364,166.77812708329088</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -33396,7 +33390,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-46.22069293901859,166.77813185084645</t>
+          <t>-46.22069184311031,166.77813338006226</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -33463,7 +33457,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-46.220556466023645,166.77832228272047</t>
+          <t>-46.220556143696804,166.7783227324876</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -33518,7 +33512,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-46.22068004597857,166.77814984161685</t>
+          <t>-46.22067965918732,166.77815038133986</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -33585,7 +33579,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-46.22076526891221,166.7780309224671</t>
+          <t>-46.220765913563206,166.778030022926</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -33652,7 +33646,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-46.22070718582397,166.7781119710353</t>
+          <t>-46.22070544526425,166.77811439979106</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -33734,7 +33728,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-46.22070306005269,166.77811772808576</t>
+          <t>-46.22070170628391,166.77811961711774</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -33801,7 +33795,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-46.22049200061716,166.77841223603824</t>
+          <t>-46.220490840239094,166.77841385519602</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -33848,7 +33842,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-46.220667926517955,166.77816675293332</t>
+          <t>-46.220668571170194,166.77816585339536</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -33907,7 +33901,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-46.220719047414555,166.7780954195104</t>
+          <t>-46.220720143322225,166.77809389029306</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -33962,7 +33956,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-46.22050044559008,166.7784004521657</t>
+          <t>-46.22050141257163,166.77839910286707</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -34001,7 +33995,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-46.22074057877297,166.7780653748762</t>
+          <t>-46.220740063051906,166.77806609450843</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -34068,7 +34062,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-46.22074476900632,166.7780595278638</t>
+          <t>-46.22074528472732,166.77805880823144</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -34135,7 +34129,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-46.22059031032921,166.77827505714365</t>
+          <t>-46.22058844083483,166.77827766579608</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -34202,7 +34196,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-46.22072027225254,166.77809371038512</t>
+          <t>-46.22072143262537,166.77809209121378</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -34269,7 +34263,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-46.220709055313975,166.7781093623715</t>
+          <t>-46.22071040908256,166.77810747333902</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -34395,7 +34389,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-46.220671923361664,166.77816117579783</t>
+          <t>-46.2206734705269,166.77815901690647</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -34458,7 +34452,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-46.22079924200843,166.77798351662096</t>
+          <t>-46.22080053130955,166.77798171753645</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -34634,7 +34628,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-46.220642527213464,166.77820219471042</t>
+          <t>-46.22064104451256,166.77820426364562</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -34693,7 +34687,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-46.22073284295661,166.7780761693583</t>
+          <t>-46.22073335867775,166.77807544972623</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -34760,7 +34754,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-46.22051946289035,166.7783739159508</t>
+          <t>-46.22051907609787,166.77837445567062</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -34799,7 +34793,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-46.22041928354022,166.77851370312598</t>
+          <t>-46.220419928195625,166.77851280359621</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -34854,7 +34848,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-46.220696033347686,166.7781275330603</t>
+          <t>-46.22069474404392,166.77812933213792</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -34905,7 +34899,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-46.22073774230711,166.77806933285333</t>
+          <t>-46.22073638853926,166.7780712218877</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -34972,7 +34966,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-46.22065503347159,166.77818474368723</t>
+          <t>-46.22065322844483,166.7781872623921</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -35039,7 +35033,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-46.22063872376322,166.77820750197876</t>
+          <t>-46.2206398841379,166.77820588281224</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -35392,7 +35386,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-46.22067295480516,166.77815973653696</t>
+          <t>-46.2206743085747,166.77815784750695</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -35486,7 +35480,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-46.220666830609154,166.7781682821477</t>
+          <t>-46.220667862052736,166.77816684288706</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -35541,7 +35535,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-46.22043720495717,166.77848869619146</t>
+          <t>-46.220435722250265,166.77849076511114</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -35608,7 +35602,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-46.22082328746885,166.77794996368095</t>
+          <t>-46.220822384958474,166.77795122304116</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -35671,7 +35665,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-46.22077951569727,166.77801104260334</t>
+          <t>-46.220780611603644,166.7780095133826</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -35734,7 +35728,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-46.220813682179056,166.77796336686964</t>
+          <t>-46.22081471361967,166.77796192760127</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -35848,7 +35842,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-46.2208185170567,166.77795662029874</t>
+          <t>-46.220819677427265,166.77795500112154</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -35911,7 +35905,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-46.22078480183371,166.77800366636163</t>
+          <t>-46.22078357699726,166.77800537549092</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -36001,7 +35995,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-46.22063182597984,166.77821712702288</t>
+          <t>-46.220630536674435,166.7782189260963</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -36064,7 +36058,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-46.2204671814138,166.77844686800898</t>
+          <t>-46.22046756820667,166.77844632829022</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -36123,7 +36117,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-46.220298474974264,166.7786822746233</t>
+          <t>-46.220297185660385,166.77868407367475</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -36190,7 +36184,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-46.220172637783975,166.7788578616444</t>
+          <t>-46.220171412932736,166.77885957073542</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -36253,7 +36247,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-46.22002101386909,166.7790694285383</t>
+          <t>-46.22002249658814,166.77906735965</t>
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -36316,7 +36310,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-46.220063625908004,166.77900997044395</t>
+          <t>-46.220064721829864,166.7790084412633</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -36383,7 +36377,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-46.22016071159962,166.77887450279044</t>
+          <t>-46.2201594867481,166.7788762118807</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -36548,7 +36542,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-46.22038440767109,166.7785623676529</t>
+          <t>-46.22038363408407,166.77856344708718</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -36615,7 +36609,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-46.220418896746985,166.7785142428438</t>
+          <t>-46.22041728510844,166.778516491668</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -36709,7 +36703,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-46.22068288244765,166.77814588364808</t>
+          <t>-46.22068410728652,166.7781441745251</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -36776,7 +36770,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-46.2206358228264,166.77821154989482</t>
+          <t>-46.22063627408325,166.77821092021904</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -36843,7 +36837,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-46.22073864481898,166.778068073497</t>
+          <t>-46.220738258028184,166.77806861322114</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -36910,7 +36904,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-46.2206631560912,166.77817340951324</t>
+          <t>-46.22066309162596,166.77817349946702</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -36977,7 +36971,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-46.22063163258404,166.77821739688392</t>
+          <t>-46.22063027881335,166.77821928591095</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -37044,7 +37038,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-46.220690295945644,166.77813553895507</t>
+          <t>-46.22069145631914,166.7781339197855</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -37111,7 +37105,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-46.220737806772235,166.7780692428993</t>
+          <t>-46.22073619514384,166.77807149174976</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -37205,7 +37199,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-46.22071028015221,166.77810765324688</t>
+          <t>-46.22071137606009,166.77810612403002</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -37327,7 +37321,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-46.22085249011722,166.7779092143602</t>
+          <t>-46.22085352155703,166.7779077750898</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -37394,7 +37388,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-46.22069912767662,166.77812321527364</t>
+          <t>-46.22069893428106,166.77812348513532</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -37461,7 +37455,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-46.220786155600244,166.77800177732388</t>
+          <t>-46.22078731597156,166.77800015814861</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -37528,7 +37522,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-46.22058695813233,166.77827973472722</t>
+          <t>-46.220586829201686,166.77827991463428</t>
         </is>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -37555,7 +37549,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>-46.22072826593139,166.77808255609207</t>
+          <t>-46.22072968416461,166.77808057710425</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -37614,7 +37608,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-46.22075753309964,166.77804171695897</t>
+          <t>-46.2207586290065,166.77804018773946</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -37763,7 +37757,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-46.22073870928412,166.77806798354297</t>
+          <t>-46.220739934121646,166.7780662744165</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -37869,7 +37863,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-46.220721239229896,166.77809236107566</t>
+          <t>-46.22072233513753,166.7780908318582</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -37959,7 +37953,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-46.220516433015874,166.7783781437558</t>
+          <t>-46.220516884273785,166.77837751408273</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -38026,7 +38020,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-46.220511920436515,166.7783844404857</t>
+          <t>-46.22051030880095,166.77838668931759</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -38093,7 +38087,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-46.2205854754298,166.77828180365822</t>
+          <t>-46.220586377944386,166.77828054430893</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -38156,7 +38150,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>-46.22067869220918,166.77815173064724</t>
+          <t>-46.22067778969622,166.7781529900008</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -38223,7 +38217,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-46.22065542026303,166.7781842039647</t>
+          <t>-46.22065600045018,166.77818339438096</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -38392,7 +38386,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-46.220721239229896,166.77809236107566</t>
+          <t>-46.22072220620722,166.77809101176615</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -38584,7 +38578,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-46.220536417291015,166.77835025822503</t>
+          <t>-46.22053757766803,166.77834863906455</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -38666,7 +38660,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>-46.2206657347003,166.77816981136206</t>
+          <t>-46.220666830609154,166.7781682821477</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -38733,7 +38727,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-46.22045983234866,166.77845712266443</t>
+          <t>-46.22045854303887,166.77845892172652</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -38800,7 +38794,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-46.22022607994856,166.77878329123067</t>
+          <t>-46.22022459723547,166.77878536013435</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -38894,7 +38888,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-46.220733100817185,166.77807580954226</t>
+          <t>-46.22073374546858,166.77807491000218</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -38961,7 +38955,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-46.22048439369379,166.77842285051574</t>
+          <t>-46.2204836201083,166.77842392995396</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
@@ -39024,7 +39018,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-46.22073206937492,166.77807724880634</t>
+          <t>-46.220731553653785,166.77807796843834</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -39087,7 +39081,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>-46.220386277173006,166.77855975901994</t>
+          <t>-46.220386728432075,166.77855912934987</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -39154,7 +39148,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>-46.220464409398126,166.7784507359934</t>
+          <t>-46.22046305562298,166.7784526250089</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -39221,7 +39215,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-46.22045557762625,166.77846305956896</t>
+          <t>-46.22045364366139,166.77846575816162</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -39288,7 +39282,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>-46.220784543973394,166.77800402617834</t>
+          <t>-46.2207831902068,166.77800591521597</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -39355,7 +39349,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-46.22074895923932,166.7780536808505</t>
+          <t>-46.2207505064022,166.77805152195305</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -39422,7 +39416,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-46.22086402934891,166.77789311251948</t>
+          <t>-46.22086538311335,166.77789122347625</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -39489,7 +39483,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-46.22084720398786,166.77791659062015</t>
+          <t>-46.22084810649779,166.7779153312588</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -39556,7 +39550,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-46.22081561613017,166.7779606682414</t>
+          <t>-46.220814197899365,166.77796264723546</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -39599,7 +39593,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>-46.220801111495035,166.7779809079484</t>
+          <t>-46.22080085363482,166.7779812677653</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -39666,7 +39660,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>-46.22076159440139,166.77803604985112</t>
+          <t>-46.22076127207586,166.7780364996216</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -39717,7 +39711,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>-46.220739676261125,166.7780666342326</t>
+          <t>-46.22073986965651,166.77806636437052</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -39784,7 +39778,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>-46.220699643398085,166.7781224956425</t>
+          <t>-46.22070073930619,166.77812096642626</t>
         </is>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -40010,7 +40004,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>-46.220737871237375,166.77806915294528</t>
+          <t>-46.22073625960899,166.77807140179576</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -40057,7 +40051,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-46.22040400520494,166.77853502197445</t>
+          <t>-46.220402651428174,166.77853691098574</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -40096,7 +40090,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>-46.220384085343156,166.77856281741717</t>
+          <t>-46.220383182824975,166.77856407675714</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -40218,7 +40212,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>-46.220472532048284,166.77843940189848</t>
+          <t>-46.220472789910175,166.7784390420859</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -40285,7 +40279,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>-46.2206413023736,166.7782039038308</t>
+          <t>-46.220639948603164,166.77820579285853</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -40352,7 +40346,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>-46.22063427566003,166.77821370878323</t>
+          <t>-46.22063556496533,166.77821190970957</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
